--- a/Tesla DCF Valuation.xlsx
+++ b/Tesla DCF Valuation.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Job 2023\Corp Finance study\Tesla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1FDDD8-C77E-42AC-84A6-91F4CDC49514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8547427A-E511-4C54-8F04-6670E24CA5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="1" xr2:uid="{2BDBC2A1-5127-4FAF-A1D5-2E7E8BC0E100}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="5" r:id="rId1"/>
     <sheet name="DCF" sheetId="1" r:id="rId2"/>
-    <sheet name="IS" sheetId="2" r:id="rId3"/>
-    <sheet name="CF" sheetId="3" r:id="rId4"/>
-    <sheet name="BS" sheetId="4" r:id="rId5"/>
+    <sheet name="WACC" sheetId="6" r:id="rId3"/>
+    <sheet name="IS" sheetId="2" r:id="rId4"/>
+    <sheet name="CF" sheetId="3" r:id="rId5"/>
+    <sheet name="BS" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="tgr">DCF!$C$16</definedName>
@@ -43,30 +44,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="316">
   <si>
     <t>TESLA DCF</t>
   </si>
@@ -945,6 +924,75 @@
   </si>
   <si>
     <t>Work in progress</t>
+  </si>
+  <si>
+    <t>WACC = % of equity * Cost of equity + % of debt * cost of debt * (1- Tax Rate)</t>
+  </si>
+  <si>
+    <t>Cost of Equity = Rf + Beta *MRP</t>
+  </si>
+  <si>
+    <t>% of Equity</t>
+  </si>
+  <si>
+    <t>Cost of Equity</t>
+  </si>
+  <si>
+    <t>Rf</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>% of Debt</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>As of 11/02/2023</t>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/</t>
+  </si>
+  <si>
+    <t>% of sum</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Revenue Projection </t>
+  </si>
+  <si>
+    <t>2. DCF Valuation</t>
+  </si>
+  <si>
+    <t>3. WACC</t>
+  </si>
+  <si>
+    <t>4. Implied Share Price Calculation</t>
+  </si>
+  <si>
+    <t>TESLA Motors Annual Reports</t>
+  </si>
+  <si>
+    <t>Source:</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1009,7 @@
     <numFmt numFmtId="170" formatCode="0.0"/>
     <numFmt numFmtId="171" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,6 +1133,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1149,18 +1242,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1362,12 +1455,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1421,9 +1626,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1440,25 +1642,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1467,31 +1657,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1509,22 +1681,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1549,12 +1709,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1597,12 +1751,6 @@
     <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1613,9 +1761,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1670,12 +1815,6 @@
     <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1727,19 +1866,50 @@
     <xf numFmtId="171" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1749,8 +1919,110 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="22" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="22" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="15" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="15" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2066,113 +2338,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB33D3A7-F4A7-4C66-8255-A4D7F7AA2273}">
-  <dimension ref="B13:C52"/>
+  <dimension ref="B2:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="87" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="115"/>
+    </row>
+    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="75" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="67" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="87" t="s">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="67" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="87" t="s">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="67" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="87" t="s">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C68" s="67" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC32B8B-9D5C-4A29-A3D9-2C3C1B6C6214}">
-  <dimension ref="A2:AG254"/>
+  <dimension ref="A2:AG252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2181,7 +2500,7 @@
     <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
@@ -2195,84 +2514,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="128"/>
+      <c r="B2" s="115"/>
+      <c r="G2" s="105" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="129"/>
-      <c r="B3" s="129"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
     </row>
     <row r="4" spans="1:33" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="134" t="s">
-        <v>292</v>
-      </c>
-      <c r="H4" s="133"/>
     </row>
     <row r="5" spans="1:33" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
+      <c r="E5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="154">
+        <f ca="1">N115</f>
+        <v>118.98928989575215</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C6" s="84">
-        <v>44967</v>
+      <c r="C6" s="65">
+        <v>44968</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="82"/>
+      <c r="C7" s="63"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="77" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="K9" s="95" t="s">
+      <c r="K9" s="75" t="s">
         <v>287</v>
       </c>
     </row>
@@ -2280,24 +2595,24 @@
       <c r="B10" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C10" s="83">
+      <c r="C10" s="64">
         <v>2</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="F10" s="108">
+      <c r="F10" s="86">
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="98" t="s">
+      <c r="K10" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="L10" s="108">
+      <c r="L10" s="86">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="M10" s="2"/>
@@ -2323,33 +2638,33 @@
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:33" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="64">
         <v>2</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="99" t="s">
+      <c r="D11" s="69"/>
+      <c r="E11" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="F11" s="108">
+      <c r="F11" s="86">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="99" t="s">
+      <c r="G11" s="69"/>
+      <c r="H11" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="99" t="s">
+      <c r="I11" s="64"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="79" t="s">
         <v>283</v>
       </c>
-      <c r="L11" s="108">
+      <c r="L11" s="86">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -2371,31 +2686,31 @@
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:33" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="64">
         <v>2</v>
       </c>
-      <c r="D12" s="89"/>
-      <c r="E12" s="99" t="s">
+      <c r="D12" s="69"/>
+      <c r="E12" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="F12" s="108">
+      <c r="F12" s="86">
         <v>-0.01</v>
       </c>
-      <c r="G12" s="89"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="99" t="s">
+      <c r="G12" s="69"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="79" t="s">
         <v>284</v>
       </c>
-      <c r="L12" s="108">
+      <c r="L12" s="86">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -2417,33 +2732,33 @@
       <c r="AG12" s="2"/>
     </row>
     <row r="13" spans="1:33" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="64">
         <v>2</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="86">
         <v>-0.02</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="100" t="s">
+      <c r="H13" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="100" t="s">
+      <c r="I13" s="65"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="L13" s="108">
+      <c r="L13" s="86">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -2468,27 +2783,28 @@
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="80" t="s">
         <v>279</v>
       </c>
-      <c r="F14" s="108">
+      <c r="F14" s="86">
         <f>I14+0.5%</f>
-        <v>0.12529999999999999</v>
+        <v>0.12161771800669077</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="100" t="s">
+      <c r="H14" s="80" t="s">
         <v>279</v>
       </c>
-      <c r="I14" s="108">
-        <v>0.1203</v>
+      <c r="I14" s="86">
+        <f>WACC!E25</f>
+        <v>0.11661771800669077</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="100" t="s">
+      <c r="K14" s="80" t="s">
         <v>279</v>
       </c>
-      <c r="L14" s="126">
-        <f>I14-1%</f>
-        <v>0.11030000000000001</v>
+      <c r="L14" s="103">
+        <f>I14-1.5%</f>
+        <v>0.10161771800669077</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -2516,33 +2832,33 @@
       <c r="B15" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="86">
         <f>CHOOSE(C12,F14,I14,L14)</f>
-        <v>0.1203</v>
-      </c>
-      <c r="D15" s="91"/>
-      <c r="E15" s="100" t="s">
+        <v>0.11661771800669077</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="F15" s="121">
+      <c r="F15" s="99">
         <v>0.02</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="100" t="s">
+      <c r="G15" s="71"/>
+      <c r="H15" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="I15" s="108">
+      <c r="I15" s="86">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="100" t="s">
+      <c r="J15" s="71"/>
+      <c r="K15" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="L15" s="121">
+      <c r="L15" s="99">
         <v>0.03</v>
       </c>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -2564,18 +2880,18 @@
       <c r="AG15" s="2"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="86">
         <f>CHOOSE(C13,F15,I15,L15)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="M16" s="6"/>
@@ -2729,49 +3045,49 @@
       <c r="AG19" s="2"/>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="76">
         <v>9642</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="76">
         <v>18515</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="76">
         <v>20821</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="76">
         <v>27236</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="76">
         <v>47232</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="76">
         <v>71462</v>
       </c>
-      <c r="I20" s="31">
-        <f>H20*(1+I24)</f>
+      <c r="I20" s="134">
+        <f>H20*(1+I23)</f>
         <v>92900.6</v>
       </c>
-      <c r="J20" s="31">
-        <f>I20*(1+J24)</f>
+      <c r="J20" s="134">
+        <f>I20*(1+J23)</f>
         <v>121699.78600000001</v>
       </c>
-      <c r="K20" s="31">
-        <f>J20*(1+K24)</f>
+      <c r="K20" s="134">
+        <f>J20*(1+K23)</f>
         <v>154558.72822000002</v>
       </c>
-      <c r="L20" s="31">
-        <f t="shared" ref="L20:M20" si="0">K20*(1+L24)</f>
+      <c r="L20" s="134">
+        <f>K20*(1+L23)</f>
         <v>190107.23571060001</v>
       </c>
-      <c r="M20" s="31">
-        <f t="shared" si="0"/>
+      <c r="M20" s="134">
+        <f>L20*(1+M23)</f>
         <v>226227.610495614</v>
       </c>
-      <c r="N20" s="31">
-        <f>M20*(1+N24)</f>
+      <c r="N20" s="134">
+        <f>M20*(1+N23)</f>
         <v>260161.7520699561</v>
       </c>
       <c r="O20" s="2"/>
@@ -2795,39 +3111,57 @@
       <c r="AG20" s="2"/>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="C21" s="105">
-        <f t="shared" ref="C21:H21" si="1">C20/C38</f>
+      <c r="C21" s="85">
+        <f>C20/C35</f>
         <v>0.81996768432689859</v>
       </c>
-      <c r="D21" s="105">
-        <f t="shared" si="1"/>
+      <c r="D21" s="85">
+        <f>D20/D35</f>
         <v>0.86272773868878427</v>
       </c>
-      <c r="E21" s="105">
-        <f t="shared" si="1"/>
+      <c r="E21" s="85">
+        <f>E20/E35</f>
         <v>0.847139718447392</v>
       </c>
-      <c r="F21" s="105">
-        <f t="shared" si="1"/>
+      <c r="F21" s="85">
+        <f>F20/F35</f>
         <v>0.86364789446981227</v>
       </c>
-      <c r="G21" s="105">
-        <f t="shared" si="1"/>
+      <c r="G21" s="85">
+        <f>G20/G35</f>
         <v>0.87754305780056852</v>
       </c>
-      <c r="H21" s="105">
-        <f t="shared" si="1"/>
+      <c r="H21" s="85">
+        <f>H20/H35</f>
         <v>0.8772433772802043</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="I21" s="36">
+        <f ca="1">I20/I76</f>
+        <v>0.84789322711097814</v>
+      </c>
+      <c r="J21" s="36">
+        <f ca="1">J20/J76</f>
+        <v>0.8414697935722586</v>
+      </c>
+      <c r="K21" s="36">
+        <f ca="1">K20/K76</f>
+        <v>0.82842375026106085</v>
+      </c>
+      <c r="L21" s="36">
+        <f ca="1">L20/L76</f>
+        <v>0.82174291356540707</v>
+      </c>
+      <c r="M21" s="36">
+        <f ca="1">M20/M76</f>
+        <v>0.81489505595236211</v>
+      </c>
+      <c r="N21" s="36">
+        <f ca="1">N20/N76</f>
+        <v>0.79082642560777738</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -2849,36 +3183,54 @@
       <c r="AG21" s="2"/>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27">
-        <f t="shared" ref="D22:H22" si="2">D20/C20-1</f>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25">
+        <f t="shared" ref="D22:G22" si="0">D20/C20-1</f>
         <v>0.92024476249740728</v>
       </c>
-      <c r="E22" s="27">
-        <f t="shared" si="2"/>
+      <c r="E22" s="25">
+        <f t="shared" si="0"/>
         <v>0.12454766405617068</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="25">
         <f>F20/E20-1</f>
         <v>0.30810239661879835</v>
       </c>
-      <c r="G22" s="27">
-        <f t="shared" si="2"/>
+      <c r="G22" s="25">
+        <f t="shared" si="0"/>
         <v>0.73417535614627694</v>
       </c>
-      <c r="H22" s="27">
-        <f t="shared" si="2"/>
+      <c r="H22" s="25">
+        <f>H20/G20-1</f>
         <v>0.51299966124661256</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="I22" s="25">
+        <f t="shared" ref="I22:N22" si="1">I20/H20-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J22" s="25">
+        <f>J20/I20-1</f>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="K22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="L22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="M22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" si="1"/>
+        <v>0.14999999999999991</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2900,23 +3252,36 @@
       <c r="AG22" s="2"/>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="88">
+      <c r="B23" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="68">
         <v>0.3</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36"/>
+      <c r="J23" s="68">
+        <v>0.31</v>
+      </c>
+      <c r="K23" s="83">
+        <f>J23-($J$23-$N$23)/($N$18-$J$18)</f>
+        <v>0.27</v>
+      </c>
+      <c r="L23" s="83">
+        <f>K23-($J$23-$N$23)/($N$18-$J$18)</f>
+        <v>0.23</v>
+      </c>
+      <c r="M23" s="83">
+        <f>L23-($J$23-$N$23)/($N$18-$J$18)</f>
+        <v>0.19</v>
+      </c>
+      <c r="N23" s="84">
+        <v>0.15</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2938,36 +3303,19 @@
       <c r="AG23" s="2"/>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B24" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="88">
-        <v>0.3</v>
-      </c>
-      <c r="J24" s="88">
-        <v>0.31</v>
-      </c>
-      <c r="K24" s="103">
-        <f>J24-($J$24-$N$24)/($N$18-$J$18)</f>
-        <v>0.27</v>
-      </c>
-      <c r="L24" s="103">
-        <f>K24-($J$24-$N$24)/($N$18-$J$18)</f>
-        <v>0.23</v>
-      </c>
-      <c r="M24" s="103">
-        <f>L24-($J$24-$N$24)/($N$18-$J$18)</f>
-        <v>0.19</v>
-      </c>
-      <c r="N24" s="104">
-        <v>0.15</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2989,23 +3337,51 @@
       <c r="AG24" s="2"/>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="88">
-        <v>0.3</v>
-      </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
+      <c r="B25" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="137">
+        <v>1116</v>
+      </c>
+      <c r="D25" s="137">
+        <v>1555</v>
+      </c>
+      <c r="E25" s="137">
+        <v>1531</v>
+      </c>
+      <c r="F25" s="137">
+        <v>1994</v>
+      </c>
+      <c r="G25" s="137">
+        <v>2789</v>
+      </c>
+      <c r="H25" s="137">
+        <v>3909</v>
+      </c>
+      <c r="I25" s="135">
+        <f ca="1">I31*I27</f>
+        <v>6832.9738999999972</v>
+      </c>
+      <c r="J25" s="135">
+        <f ca="1">J31*J27</f>
+        <v>8712.5825439999971</v>
+      </c>
+      <c r="K25" s="135">
+        <f ca="1">K31*K27</f>
+        <v>11683.986045279991</v>
+      </c>
+      <c r="L25" s="135">
+        <f ca="1">L31*L27</f>
+        <v>14433.695120417995</v>
+      </c>
+      <c r="M25" s="135">
+        <f ca="1">M31*M27</f>
+        <v>17780.257361265962</v>
+      </c>
+      <c r="N25" s="135">
+        <f ca="1">N31*N27</f>
+        <v>22020.089097065498</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -3027,19 +3403,54 @@
       <c r="AG25" s="2"/>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="B26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="66">
+        <f>D25/C25-1</f>
+        <v>0.39336917562724016</v>
+      </c>
+      <c r="E26" s="66">
+        <f t="shared" ref="E26:G26" si="2">E25/D25-1</f>
+        <v>-1.5434083601286175E-2</v>
+      </c>
+      <c r="F26" s="66">
+        <f t="shared" si="2"/>
+        <v>0.30241672109732209</v>
+      </c>
+      <c r="G26" s="66">
+        <f t="shared" si="2"/>
+        <v>0.3986960882647943</v>
+      </c>
+      <c r="H26" s="66">
+        <f>H25/G25-1</f>
+        <v>0.40157762638938688</v>
+      </c>
+      <c r="I26" s="128">
+        <f ca="1">I25/H25-1</f>
+        <v>0.74801071885392623</v>
+      </c>
+      <c r="J26" s="128">
+        <f t="shared" ref="J26:N26" ca="1" si="3">J25/I25-1</f>
+        <v>0.27507914877298156</v>
+      </c>
+      <c r="K26" s="128">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.34104738592419759</v>
+      </c>
+      <c r="L26" s="128">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23533998281766277</v>
+      </c>
+      <c r="M26" s="128">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23185762293911139</v>
+      </c>
+      <c r="N26" s="128">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.23845727593549637</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -3061,38 +3472,51 @@
       <c r="AG26" s="2"/>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="44">
-        <v>1116</v>
-      </c>
-      <c r="D27" s="44">
-        <v>1555</v>
-      </c>
-      <c r="E27" s="44">
-        <v>1531</v>
-      </c>
-      <c r="F27" s="44">
-        <v>1994</v>
-      </c>
-      <c r="G27" s="44">
-        <v>2789</v>
-      </c>
-      <c r="H27" s="44">
-        <v>3909</v>
-      </c>
-      <c r="I27" s="6">
-        <f>H27*(1+I28)</f>
-        <v>9811.5899999999983</v>
-      </c>
-      <c r="J27" s="31">
-        <v>10800</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="B27" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="124">
+        <f>C25/C31</f>
+        <v>0.52716107699574866</v>
+      </c>
+      <c r="D27" s="124">
+        <f t="shared" ref="D27:H27" si="4">D25/D31</f>
+        <v>0.52783435166327219</v>
+      </c>
+      <c r="E27" s="124">
+        <f t="shared" si="4"/>
+        <v>0.40750598882086769</v>
+      </c>
+      <c r="F27" s="124">
+        <f t="shared" si="4"/>
+        <v>0.46372093023255812</v>
+      </c>
+      <c r="G27" s="124">
+        <f t="shared" si="4"/>
+        <v>0.42315278409952967</v>
+      </c>
+      <c r="H27" s="124">
+        <f t="shared" si="4"/>
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="I27" s="126">
+        <v>0.41</v>
+      </c>
+      <c r="J27" s="87">
+        <v>0.38</v>
+      </c>
+      <c r="K27" s="82">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="L27" s="82">
+        <v>0.35</v>
+      </c>
+      <c r="M27" s="82">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="N27" s="82">
+        <v>0.32</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -3114,41 +3538,51 @@
       <c r="AG27" s="2"/>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="86">
-        <f>D27/C27-1</f>
-        <v>0.39336917562724016</v>
-      </c>
-      <c r="E28" s="86">
-        <f t="shared" ref="E28:G28" si="3">E27/D27-1</f>
-        <v>-1.5434083601286175E-2</v>
-      </c>
-      <c r="F28" s="86">
-        <f t="shared" si="3"/>
-        <v>0.30241672109732209</v>
-      </c>
-      <c r="G28" s="86">
-        <f t="shared" si="3"/>
-        <v>0.3986960882647943</v>
-      </c>
-      <c r="H28" s="86">
-        <f>H27/G27-1</f>
-        <v>0.40157762638938688</v>
-      </c>
-      <c r="I28" s="86">
-        <v>1.51</v>
-      </c>
-      <c r="J28" s="7">
-        <f>J27/I27-1</f>
-        <v>0.10073902395024681</v>
-      </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="B28" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="138">
+        <v>1001</v>
+      </c>
+      <c r="D28" s="138">
+        <v>1391</v>
+      </c>
+      <c r="E28" s="138">
+        <v>2226</v>
+      </c>
+      <c r="F28" s="138">
+        <v>2306</v>
+      </c>
+      <c r="G28" s="138">
+        <v>3802</v>
+      </c>
+      <c r="H28" s="138">
+        <v>6091</v>
+      </c>
+      <c r="I28" s="133">
+        <f ca="1">I31*I30</f>
+        <v>9832.8160999999982</v>
+      </c>
+      <c r="J28" s="133">
+        <f ca="1">J31*J30</f>
+        <v>14215.266255999995</v>
+      </c>
+      <c r="K28" s="133">
+        <f ca="1">K31*K30</f>
+        <v>20326.934626719987</v>
+      </c>
+      <c r="L28" s="133">
+        <f ca="1">L31*L30</f>
+        <v>26805.433795061992</v>
+      </c>
+      <c r="M28" s="133">
+        <f ca="1">M31*M30</f>
+        <v>33607.769694416012</v>
+      </c>
+      <c r="N28" s="133">
+        <f ca="1">N31*N30</f>
+        <v>46792.689331264177</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -3170,33 +3604,54 @@
       <c r="AG28" s="2"/>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="32">
-        <v>1001</v>
-      </c>
-      <c r="D29" s="32">
-        <v>1391</v>
-      </c>
-      <c r="E29" s="32">
-        <v>2226</v>
-      </c>
-      <c r="F29" s="32">
-        <v>2306</v>
-      </c>
-      <c r="G29" s="32">
-        <v>3802</v>
-      </c>
-      <c r="H29" s="32">
-        <v>6091</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="B29" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="138"/>
+      <c r="D29" s="66">
+        <f>D28/C28-1</f>
+        <v>0.38961038961038952</v>
+      </c>
+      <c r="E29" s="66">
+        <f t="shared" ref="E29:G29" si="5">E28/D28-1</f>
+        <v>0.60028756290438534</v>
+      </c>
+      <c r="F29" s="66">
+        <f t="shared" si="5"/>
+        <v>3.5938903863432126E-2</v>
+      </c>
+      <c r="G29" s="66">
+        <f t="shared" si="5"/>
+        <v>0.64874241110147435</v>
+      </c>
+      <c r="H29" s="66">
+        <f>H28/G28-1</f>
+        <v>0.60205155181483438</v>
+      </c>
+      <c r="I29" s="125">
+        <f t="shared" ref="I29:N29" ca="1" si="6">I28/H28-1</f>
+        <v>0.61431884747988796</v>
+      </c>
+      <c r="J29" s="125">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.44569634084786736</v>
+      </c>
+      <c r="K29" s="125">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.42993696077555854</v>
+      </c>
+      <c r="L29" s="125">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.31871500977948464</v>
+      </c>
+      <c r="M29" s="125">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.25376705153740597</v>
+      </c>
+      <c r="N29" s="125">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.3923176026476658</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -3218,36 +3673,58 @@
       <c r="AG29" s="2"/>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B30" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="86">
-        <f>D29/C29-1</f>
-        <v>0.38961038961038952</v>
-      </c>
-      <c r="E30" s="86">
-        <f t="shared" ref="E30:H30" si="4">E29/D29-1</f>
-        <v>0.60028756290438534</v>
-      </c>
-      <c r="F30" s="86">
-        <f t="shared" si="4"/>
-        <v>3.5938903863432126E-2</v>
-      </c>
-      <c r="G30" s="86">
-        <f t="shared" si="4"/>
-        <v>0.64874241110147435</v>
-      </c>
-      <c r="H30" s="86">
-        <f t="shared" si="4"/>
-        <v>0.60205155181483438</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="B30" s="24" t="str">
+        <f>B27</f>
+        <v>% of sum</v>
+      </c>
+      <c r="C30" s="66">
+        <f>C28/C31</f>
+        <v>0.47283892300425129</v>
+      </c>
+      <c r="D30" s="66">
+        <f t="shared" ref="D30:H30" si="7">D28/D31</f>
+        <v>0.47216564833672775</v>
+      </c>
+      <c r="E30" s="66">
+        <f t="shared" si="7"/>
+        <v>0.59249401117913225</v>
+      </c>
+      <c r="F30" s="66">
+        <f t="shared" si="7"/>
+        <v>0.53627906976744188</v>
+      </c>
+      <c r="G30" s="66">
+        <f t="shared" si="7"/>
+        <v>0.57684721590047039</v>
+      </c>
+      <c r="H30" s="66">
+        <f t="shared" si="7"/>
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="I30" s="130">
+        <f>1-I27</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="J30" s="130">
+        <f t="shared" ref="J30:N30" si="8">1-J27</f>
+        <v>0.62</v>
+      </c>
+      <c r="K30" s="130">
+        <f t="shared" si="8"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="L30" s="130">
+        <f t="shared" si="8"/>
+        <v>0.65</v>
+      </c>
+      <c r="M30" s="130">
+        <f t="shared" si="8"/>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="N30" s="130">
+        <f t="shared" si="8"/>
+        <v>0.67999999999999994</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -3269,50 +3746,56 @@
       <c r="AG30" s="2"/>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="43">
-        <f>C27+C29</f>
+      <c r="C31" s="139">
+        <f>C25+C28</f>
         <v>2117</v>
       </c>
-      <c r="D31" s="43">
-        <f t="shared" ref="D31:H31" si="5">D27+D29</f>
+      <c r="D31" s="139">
+        <f>D25+D28</f>
         <v>2946</v>
       </c>
-      <c r="E31" s="43">
-        <f t="shared" si="5"/>
+      <c r="E31" s="139">
+        <f>E25+E28</f>
         <v>3757</v>
       </c>
-      <c r="F31" s="43">
-        <f t="shared" si="5"/>
+      <c r="F31" s="139">
+        <f>F25+F28</f>
         <v>4300</v>
       </c>
-      <c r="G31" s="43">
-        <f t="shared" si="5"/>
+      <c r="G31" s="139">
+        <f>G25+G28</f>
         <v>6591</v>
       </c>
-      <c r="H31" s="43">
-        <f t="shared" si="5"/>
+      <c r="H31" s="139">
+        <f>H25+H28</f>
         <v>10000</v>
       </c>
-      <c r="I31" s="19">
-        <v>20000</v>
-      </c>
-      <c r="J31" s="19">
-        <v>25000</v>
-      </c>
-      <c r="K31" s="19">
-        <v>28942</v>
-      </c>
-      <c r="L31" s="19">
-        <v>28000</v>
-      </c>
-      <c r="M31" s="19">
-        <v>32000</v>
-      </c>
-      <c r="N31" s="19">
-        <v>34500</v>
+      <c r="I31" s="136">
+        <f ca="1">I35-I20</f>
+        <v>16665.789999999994</v>
+      </c>
+      <c r="J31" s="136">
+        <f ca="1">J35-J20</f>
+        <v>22927.848799999992</v>
+      </c>
+      <c r="K31" s="136">
+        <f ca="1">K35-K20</f>
+        <v>32010.920671999978</v>
+      </c>
+      <c r="L31" s="136">
+        <f ca="1">L35-L20</f>
+        <v>41239.128915479989</v>
+      </c>
+      <c r="M31" s="136">
+        <f ca="1">M35-M20</f>
+        <v>51388.027055681974</v>
+      </c>
+      <c r="N31" s="136">
+        <f ca="1">N35-N20</f>
+        <v>68812.778428329679</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -3335,36 +3818,54 @@
       <c r="AG31" s="2"/>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="85">
+      <c r="C32" s="140"/>
+      <c r="D32" s="141">
         <f>D31/C31-1</f>
         <v>0.39159187529522921</v>
       </c>
-      <c r="E32" s="85">
-        <f t="shared" ref="E32:G32" si="6">E31/D31-1</f>
+      <c r="E32" s="141">
+        <f t="shared" ref="E32:G32" si="9">E31/D31-1</f>
         <v>0.27528852681602167</v>
       </c>
-      <c r="F32" s="85">
-        <f t="shared" si="6"/>
+      <c r="F32" s="141">
+        <f t="shared" si="9"/>
         <v>0.1445302102741548</v>
       </c>
-      <c r="G32" s="85">
-        <f t="shared" si="6"/>
+      <c r="G32" s="141">
+        <f t="shared" si="9"/>
         <v>0.53279069767441856</v>
       </c>
-      <c r="H32" s="85">
+      <c r="H32" s="141">
         <f>H31/G31-1</f>
         <v>0.51722045213169476</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
+      <c r="I32" s="131">
+        <f t="shared" ref="I32:N32" ca="1" si="10">I31/H31-1</f>
+        <v>0.66657899999999937</v>
+      </c>
+      <c r="J32" s="129">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.37574329209716439</v>
+      </c>
+      <c r="K32" s="129">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.39615892233204142</v>
+      </c>
+      <c r="L32" s="129">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.28828312493841968</v>
+      </c>
+      <c r="M32" s="129">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.24609875152800287</v>
+      </c>
+      <c r="N32" s="129">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.33908192960525518</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -3386,39 +3887,57 @@
       <c r="AG32" s="2"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="C33" s="106">
-        <f t="shared" ref="C33:H33" si="7">C31/C38</f>
+      <c r="C33" s="142">
+        <f>C31/C35</f>
         <v>0.18003231567310146</v>
       </c>
-      <c r="D33" s="106">
-        <f t="shared" si="7"/>
+      <c r="D33" s="142">
+        <f>D31/D35</f>
         <v>0.1372722613112157</v>
       </c>
-      <c r="E33" s="106">
-        <f t="shared" si="7"/>
+      <c r="E33" s="142">
+        <f>E31/E35</f>
         <v>0.15286028155260803</v>
       </c>
-      <c r="F33" s="106">
-        <f t="shared" si="7"/>
+      <c r="F33" s="142">
+        <f>F31/F35</f>
         <v>0.13635210553018773</v>
       </c>
-      <c r="G33" s="106">
-        <f t="shared" si="7"/>
+      <c r="G33" s="142">
+        <f>G31/G35</f>
         <v>0.12245694219943147</v>
       </c>
-      <c r="H33" s="106">
-        <f t="shared" si="7"/>
+      <c r="H33" s="142">
+        <f>H31/H35</f>
         <v>0.12275662271979573</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+      <c r="I33" s="127">
+        <f ca="1">I31/I35</f>
+        <v>0.15210677288902183</v>
+      </c>
+      <c r="J33" s="127">
+        <f ca="1">J31/J35</f>
+        <v>0.15853020642774138</v>
+      </c>
+      <c r="K33" s="127">
+        <f ca="1">K31/K35</f>
+        <v>0.17157624973893912</v>
+      </c>
+      <c r="L33" s="127">
+        <f ca="1">L31/L35</f>
+        <v>0.1782570864345929</v>
+      </c>
+      <c r="M33" s="127">
+        <f ca="1">M31/M35</f>
+        <v>0.18510494404763794</v>
+      </c>
+      <c r="N33" s="127">
+        <f ca="1">N31/N35</f>
+        <v>0.20917357439222259</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -3440,21 +3959,19 @@
       <c r="AG33" s="2"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -3476,21 +3993,57 @@
       <c r="AG34" s="2"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B35" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="38"/>
+      <c r="B35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="143">
+        <f>C20+C31</f>
+        <v>11759</v>
+      </c>
+      <c r="D35" s="143">
+        <f>D20+D31</f>
+        <v>21461</v>
+      </c>
+      <c r="E35" s="143">
+        <f>E20+E31</f>
+        <v>24578</v>
+      </c>
+      <c r="F35" s="143">
+        <f>F20+F31</f>
+        <v>31536</v>
+      </c>
+      <c r="G35" s="143">
+        <f>G20+G31</f>
+        <v>53823</v>
+      </c>
+      <c r="H35" s="143">
+        <f>H20+H31</f>
+        <v>81462</v>
+      </c>
+      <c r="I35" s="133">
+        <f ca="1">I76</f>
+        <v>109566.39</v>
+      </c>
+      <c r="J35" s="133">
+        <f t="shared" ref="J35:N35" ca="1" si="11">J76</f>
+        <v>144627.6348</v>
+      </c>
+      <c r="K35" s="133">
+        <f t="shared" ca="1" si="11"/>
+        <v>186569.648892</v>
+      </c>
+      <c r="L35" s="133">
+        <f t="shared" ca="1" si="11"/>
+        <v>231346.36462608</v>
+      </c>
+      <c r="M35" s="133">
+        <f t="shared" ca="1" si="11"/>
+        <v>277615.63755129598</v>
+      </c>
+      <c r="N35" s="133">
+        <f t="shared" ca="1" si="11"/>
+        <v>328974.53049828578</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -3512,21 +4065,54 @@
       <c r="AG35" s="2"/>
     </row>
     <row r="36" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B36" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="42"/>
+      <c r="B36" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="124">
+        <f>D35/C35-1</f>
+        <v>0.8250701590271281</v>
+      </c>
+      <c r="E36" s="124">
+        <f t="shared" ref="E36:H36" si="12">E35/D35-1</f>
+        <v>0.14524020315921904</v>
+      </c>
+      <c r="F36" s="124">
+        <f t="shared" si="12"/>
+        <v>0.28309870615998056</v>
+      </c>
+      <c r="G36" s="124">
+        <f t="shared" si="12"/>
+        <v>0.70671613394216126</v>
+      </c>
+      <c r="H36" s="124">
+        <f t="shared" si="12"/>
+        <v>0.51351652639206291</v>
+      </c>
+      <c r="I36" s="25">
+        <f t="shared" ref="I36" ca="1" si="13">I35/H35-1</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J36" s="25">
+        <f t="shared" ref="J36" ca="1" si="14">J35/I35-1</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="K36" s="25">
+        <f t="shared" ref="K36" ca="1" si="15">K35/J35-1</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="L36" s="25">
+        <f t="shared" ref="L36" ca="1" si="16">L35/K35-1</f>
+        <v>0.24</v>
+      </c>
+      <c r="M36" s="25">
+        <f t="shared" ref="M36" ca="1" si="17">M35/L35-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" ref="N36" ca="1" si="18">N35/M35-1</f>
+        <v>0.18500000000000005</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -3548,13 +4134,13 @@
       <c r="AG36" s="2"/>
     </row>
     <row r="37" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3582,36 +4168,39 @@
       <c r="AG37" s="2"/>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="29">
-        <v>11759</v>
-      </c>
-      <c r="D38" s="29">
-        <v>21461</v>
-      </c>
-      <c r="E38" s="29">
-        <v>24578</v>
-      </c>
-      <c r="F38" s="29">
-        <f>IS!D6</f>
-        <v>31536</v>
-      </c>
-      <c r="G38" s="29">
-        <f>IS!E6</f>
-        <v>53823</v>
-      </c>
-      <c r="H38" s="29">
-        <f>IS!F6</f>
-        <v>81462</v>
-      </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="B38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="143">
+        <f>C35-C40</f>
+        <v>9536</v>
+      </c>
+      <c r="D38" s="143">
+        <f>D35-D40</f>
+        <v>17419</v>
+      </c>
+      <c r="E38" s="143">
+        <f>E35-E40</f>
+        <v>20509</v>
+      </c>
+      <c r="F38" s="143">
+        <f>IS!D8</f>
+        <v>24906</v>
+      </c>
+      <c r="G38" s="143">
+        <f>IS!E8</f>
+        <v>40217</v>
+      </c>
+      <c r="H38" s="143">
+        <f>IS!F8</f>
+        <v>60609</v>
+      </c>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -3633,36 +4222,39 @@
       <c r="AG38" s="2"/>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B39" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27">
-        <f>D38/C38-1</f>
-        <v>0.8250701590271281</v>
-      </c>
-      <c r="E39" s="27">
-        <f t="shared" ref="E39:H39" si="8">E38/D38-1</f>
-        <v>0.14524020315921904</v>
-      </c>
-      <c r="F39" s="27">
-        <f t="shared" si="8"/>
-        <v>0.28309870615998056</v>
-      </c>
-      <c r="G39" s="27">
-        <f t="shared" si="8"/>
-        <v>0.70671613394216126</v>
-      </c>
-      <c r="H39" s="27">
-        <f t="shared" si="8"/>
-        <v>0.51351652639206291</v>
-      </c>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="107"/>
-      <c r="N39" s="107"/>
+      <c r="B39" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="124">
+        <f t="shared" ref="C39:H39" si="19">C38/C35</f>
+        <v>0.81095331235649293</v>
+      </c>
+      <c r="D39" s="124">
+        <f t="shared" si="19"/>
+        <v>0.81165835701971012</v>
+      </c>
+      <c r="E39" s="124">
+        <f t="shared" si="19"/>
+        <v>0.83444543901049717</v>
+      </c>
+      <c r="F39" s="124">
+        <f t="shared" si="19"/>
+        <v>0.7897640791476408</v>
+      </c>
+      <c r="G39" s="124">
+        <f t="shared" si="19"/>
+        <v>0.74720844248741247</v>
+      </c>
+      <c r="H39" s="124">
+        <f t="shared" si="19"/>
+        <v>0.74401561464240995</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -3684,13 +4276,29 @@
       <c r="AG39" s="2"/>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="B40" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="145">
+        <v>2223</v>
+      </c>
+      <c r="D40" s="145">
+        <v>4042</v>
+      </c>
+      <c r="E40" s="145">
+        <v>4069</v>
+      </c>
+      <c r="F40" s="145">
+        <v>6630</v>
+      </c>
+      <c r="G40" s="145">
+        <f>G35-G38</f>
+        <v>13606</v>
+      </c>
+      <c r="H40" s="146">
+        <f>H35-H38</f>
+        <v>20853</v>
+      </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -3718,32 +4326,32 @@
       <c r="AG40" s="2"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="29">
-        <f>C38-C43</f>
-        <v>9536</v>
-      </c>
-      <c r="D41" s="29">
-        <f>D38-D43</f>
-        <v>17419</v>
-      </c>
-      <c r="E41" s="29">
-        <f>E38-E43</f>
-        <v>20509</v>
-      </c>
-      <c r="F41" s="29">
-        <f>IS!D8</f>
-        <v>24906</v>
-      </c>
-      <c r="G41" s="29">
-        <f>IS!E8</f>
-        <v>40217</v>
-      </c>
-      <c r="H41" s="29">
-        <f>IS!F8</f>
-        <v>60609</v>
+      <c r="B41" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="147">
+        <f t="shared" ref="C41:H41" si="20">C40/C35</f>
+        <v>0.1890466876435071</v>
+      </c>
+      <c r="D41" s="147">
+        <f t="shared" si="20"/>
+        <v>0.18834164298028983</v>
+      </c>
+      <c r="E41" s="147">
+        <f t="shared" si="20"/>
+        <v>0.1655545609895028</v>
+      </c>
+      <c r="F41" s="147">
+        <f t="shared" si="20"/>
+        <v>0.2102359208523592</v>
+      </c>
+      <c r="G41" s="147">
+        <f t="shared" si="20"/>
+        <v>0.25279155751258753</v>
+      </c>
+      <c r="H41" s="148">
+        <f t="shared" si="20"/>
+        <v>0.25598438535759005</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -3772,39 +4380,12 @@
       <c r="AG41" s="2"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B42" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="27">
-        <f t="shared" ref="C42:H42" si="9">C41/C38</f>
-        <v>0.81095331235649293</v>
-      </c>
-      <c r="D42" s="27">
-        <f t="shared" si="9"/>
-        <v>0.81165835701971012</v>
-      </c>
-      <c r="E42" s="27">
-        <f t="shared" si="9"/>
-        <v>0.83444543901049717</v>
-      </c>
-      <c r="F42" s="27">
-        <f t="shared" si="9"/>
-        <v>0.7897640791476408</v>
-      </c>
-      <c r="G42" s="27">
-        <f t="shared" si="9"/>
-        <v>0.74720844248741247</v>
-      </c>
-      <c r="H42" s="27">
-        <f t="shared" si="9"/>
-        <v>0.74401561464240995</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -3826,28 +4407,30 @@
       <c r="AG42" s="2"/>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B43" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="53">
-        <v>2223</v>
-      </c>
-      <c r="D43" s="53">
-        <v>4042</v>
-      </c>
-      <c r="E43" s="53">
-        <v>4069</v>
-      </c>
-      <c r="F43" s="53">
-        <v>6630</v>
-      </c>
-      <c r="G43" s="53">
-        <f>G38-G41</f>
-        <v>13606</v>
-      </c>
-      <c r="H43" s="54">
-        <f>H38-H41</f>
-        <v>20853</v>
+      <c r="B43" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="150">
+        <v>3855</v>
+      </c>
+      <c r="D43" s="150">
+        <v>4430</v>
+      </c>
+      <c r="E43" s="150">
+        <f>IS!I13</f>
+        <v>4138</v>
+      </c>
+      <c r="F43" s="150">
+        <f>IS!D14</f>
+        <v>4636</v>
+      </c>
+      <c r="G43" s="150">
+        <f>IS!E14</f>
+        <v>7083</v>
+      </c>
+      <c r="H43" s="151">
+        <f>IS!F14</f>
+        <v>7197</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -3876,37 +4459,37 @@
       <c r="AG43" s="2"/>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B44" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="56">
-        <f t="shared" ref="C44:H44" si="10">C43/C38</f>
-        <v>0.1890466876435071</v>
-      </c>
-      <c r="D44" s="56">
-        <f t="shared" si="10"/>
-        <v>0.18834164298028983</v>
-      </c>
-      <c r="E44" s="56">
-        <f t="shared" si="10"/>
-        <v>0.1655545609895028</v>
-      </c>
-      <c r="F44" s="56">
-        <f t="shared" si="10"/>
-        <v>0.2102359208523592</v>
-      </c>
-      <c r="G44" s="56">
-        <f t="shared" si="10"/>
-        <v>0.25279155751258753</v>
-      </c>
-      <c r="H44" s="57">
-        <f t="shared" si="10"/>
-        <v>0.25598438535759005</v>
+      <c r="B44" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="152">
+        <f t="shared" ref="C44:H44" si="21">C43/C35</f>
+        <v>0.3278339994897525</v>
+      </c>
+      <c r="D44" s="152">
+        <f t="shared" si="21"/>
+        <v>0.20642094962956059</v>
+      </c>
+      <c r="E44" s="152">
+        <f t="shared" si="21"/>
+        <v>0.16836194971112378</v>
+      </c>
+      <c r="F44" s="152">
+        <f t="shared" si="21"/>
+        <v>0.14700659563673263</v>
+      </c>
+      <c r="G44" s="152">
+        <f t="shared" si="21"/>
+        <v>0.13159801571818738</v>
+      </c>
+      <c r="H44" s="153">
+        <f t="shared" si="21"/>
+        <v>8.8347941371436992E-2</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3930,6 +4513,19 @@
       <c r="AG44" s="2"/>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -3951,30 +4547,30 @@
       <c r="AG45" s="2"/>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B46" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="49">
-        <v>3855</v>
-      </c>
-      <c r="D46" s="49">
-        <v>4430</v>
-      </c>
-      <c r="E46" s="49">
-        <f>IS!I13</f>
-        <v>4138</v>
-      </c>
-      <c r="F46" s="49">
-        <f>IS!D14</f>
-        <v>4636</v>
-      </c>
-      <c r="G46" s="49">
-        <f>IS!E14</f>
-        <v>7083</v>
-      </c>
-      <c r="H46" s="50">
-        <f>IS!F14</f>
-        <v>7197</v>
+      <c r="B46" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="44">
+        <v>-1632</v>
+      </c>
+      <c r="D46" s="44">
+        <v>-388</v>
+      </c>
+      <c r="E46" s="44">
+        <f>IS!I14</f>
+        <v>-69</v>
+      </c>
+      <c r="F46" s="45">
+        <f>IS!D15</f>
+        <v>1994</v>
+      </c>
+      <c r="G46" s="45">
+        <f>IS!E15</f>
+        <v>6523</v>
+      </c>
+      <c r="H46" s="46">
+        <f>IS!F15</f>
+        <v>13656</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -4003,37 +4599,37 @@
       <c r="AG46" s="2"/>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="63">
-        <f t="shared" ref="C47:H47" si="11">C46/C38</f>
-        <v>0.3278339994897525</v>
-      </c>
-      <c r="D47" s="63">
-        <f t="shared" si="11"/>
-        <v>0.20642094962956059</v>
-      </c>
-      <c r="E47" s="63">
-        <f t="shared" si="11"/>
-        <v>0.16836194971112378</v>
-      </c>
-      <c r="F47" s="63">
-        <f t="shared" si="11"/>
-        <v>0.14700659563673263</v>
-      </c>
-      <c r="G47" s="63">
-        <f t="shared" si="11"/>
-        <v>0.13159801571818738</v>
-      </c>
-      <c r="H47" s="64">
-        <f t="shared" si="11"/>
-        <v>8.8347941371436992E-2</v>
+      <c r="C47" s="41">
+        <f t="shared" ref="C47:G47" si="22">C46/C35</f>
+        <v>-0.13878731184624543</v>
+      </c>
+      <c r="D47" s="41">
+        <f t="shared" si="22"/>
+        <v>-1.8079306649270769E-2</v>
+      </c>
+      <c r="E47" s="41">
+        <f t="shared" si="22"/>
+        <v>-2.8073887216209618E-3</v>
+      </c>
+      <c r="F47" s="41">
+        <f>F46/F35</f>
+        <v>6.3229325215626589E-2</v>
+      </c>
+      <c r="G47" s="41">
+        <f t="shared" si="22"/>
+        <v>0.12119354179440016</v>
+      </c>
+      <c r="H47" s="42">
+        <f>H46/H35</f>
+        <v>0.16763644398615304</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="6"/>
+      <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -4091,30 +4687,32 @@
       <c r="AG48" s="2"/>
     </row>
     <row r="49" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B49" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="59">
-        <v>-1632</v>
-      </c>
-      <c r="D49" s="59">
-        <v>-388</v>
-      </c>
-      <c r="E49" s="59">
-        <f>IS!I14</f>
-        <v>-69</v>
-      </c>
-      <c r="F49" s="60">
-        <f>IS!D15</f>
-        <v>1994</v>
-      </c>
-      <c r="G49" s="60">
-        <f>IS!E15</f>
-        <v>6523</v>
-      </c>
-      <c r="H49" s="61">
-        <f>IS!F15</f>
-        <v>13656</v>
+      <c r="B49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="50">
+        <f>DCF!C52-DCF!C46</f>
+        <v>-577</v>
+      </c>
+      <c r="D49" s="50">
+        <f>DCF!D52-DCF!D46</f>
+        <v>-617</v>
+      </c>
+      <c r="E49" s="50">
+        <f>DCF!E52-DCF!E46</f>
+        <v>-596</v>
+      </c>
+      <c r="F49" s="50">
+        <f>DCF!F52-DCF!F46</f>
+        <v>-840</v>
+      </c>
+      <c r="G49" s="50">
+        <f>DCF!G52-DCF!G46</f>
+        <v>-180</v>
+      </c>
+      <c r="H49" s="35">
+        <f>DCF!H52-DCF!H46</f>
+        <v>63</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -4143,32 +4741,32 @@
       <c r="AG49" s="2"/>
     </row>
     <row r="50" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B50" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="56">
-        <f t="shared" ref="C50:H50" si="12">C49/C38</f>
-        <v>-0.13878731184624543</v>
-      </c>
-      <c r="D50" s="56">
-        <f t="shared" si="12"/>
-        <v>-1.8079306649270769E-2</v>
-      </c>
-      <c r="E50" s="56">
-        <f t="shared" si="12"/>
-        <v>-2.8073887216209618E-3</v>
-      </c>
-      <c r="F50" s="56">
-        <f t="shared" si="12"/>
-        <v>6.3229325215626589E-2</v>
-      </c>
-      <c r="G50" s="56">
-        <f t="shared" si="12"/>
-        <v>0.12119354179440016</v>
-      </c>
-      <c r="H50" s="57">
-        <f t="shared" si="12"/>
-        <v>0.16763644398615304</v>
+      <c r="B50" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="36">
+        <f>C49/C46</f>
+        <v>0.35355392156862747</v>
+      </c>
+      <c r="D50" s="36">
+        <f t="shared" ref="D50:H50" si="23">D49/D46</f>
+        <v>1.5902061855670102</v>
+      </c>
+      <c r="E50" s="36">
+        <f t="shared" si="23"/>
+        <v>8.6376811594202891</v>
+      </c>
+      <c r="F50" s="36">
+        <f t="shared" si="23"/>
+        <v>-0.42126379137412234</v>
+      </c>
+      <c r="G50" s="36">
+        <f t="shared" si="23"/>
+        <v>-2.7594665031427257E-2</v>
+      </c>
+      <c r="H50" s="36">
+        <f t="shared" si="23"/>
+        <v>4.6133567662565902E-3</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -4232,31 +4830,31 @@
     </row>
     <row r="52" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="67">
-        <f>DCF!C55-DCF!C49</f>
-        <v>-577</v>
-      </c>
-      <c r="D52" s="67">
-        <f>DCF!D55-DCF!D49</f>
-        <v>-617</v>
-      </c>
-      <c r="E52" s="67">
-        <f>DCF!E55-DCF!E49</f>
-        <v>-596</v>
-      </c>
-      <c r="F52" s="67">
-        <f>DCF!F55-DCF!F49</f>
-        <v>-840</v>
-      </c>
-      <c r="G52" s="67">
-        <f>DCF!G55-DCF!G49</f>
-        <v>-180</v>
-      </c>
-      <c r="H52" s="46">
-        <f>DCF!H55-DCF!H49</f>
-        <v>63</v>
+        <v>94</v>
+      </c>
+      <c r="C52" s="50">
+        <f>IS!L24</f>
+        <v>-2209</v>
+      </c>
+      <c r="D52" s="50">
+        <f>IS!M24</f>
+        <v>-1005</v>
+      </c>
+      <c r="E52" s="50">
+        <f>IS!I18</f>
+        <v>-665</v>
+      </c>
+      <c r="F52" s="35">
+        <f>IS!D19</f>
+        <v>1154</v>
+      </c>
+      <c r="G52" s="35">
+        <f>IS!E19</f>
+        <v>6343</v>
+      </c>
+      <c r="H52" s="35">
+        <f>IS!F19</f>
+        <v>13719</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -4288,29 +4886,29 @@
       <c r="B53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="47">
-        <f>C52/C49</f>
-        <v>0.35355392156862747</v>
-      </c>
-      <c r="D53" s="47">
-        <f t="shared" ref="D53:H53" si="13">D52/D49</f>
-        <v>1.5902061855670102</v>
-      </c>
-      <c r="E53" s="47">
-        <f t="shared" si="13"/>
-        <v>8.6376811594202891</v>
-      </c>
-      <c r="F53" s="47">
-        <f t="shared" si="13"/>
-        <v>-0.42126379137412234</v>
-      </c>
-      <c r="G53" s="47">
-        <f t="shared" si="13"/>
-        <v>-2.7594665031427257E-2</v>
-      </c>
-      <c r="H53" s="47">
-        <f t="shared" si="13"/>
-        <v>4.6133567662565902E-3</v>
+      <c r="C53" s="36">
+        <f>C52/C46</f>
+        <v>1.3535539215686274</v>
+      </c>
+      <c r="D53" s="36">
+        <f t="shared" ref="D53:H53" si="24">D52/D46</f>
+        <v>2.5902061855670104</v>
+      </c>
+      <c r="E53" s="36">
+        <f t="shared" si="24"/>
+        <v>9.6376811594202891</v>
+      </c>
+      <c r="F53" s="36">
+        <f t="shared" si="24"/>
+        <v>0.5787362086258776</v>
+      </c>
+      <c r="G53" s="36">
+        <f t="shared" si="24"/>
+        <v>0.97240533496857273</v>
+      </c>
+      <c r="H53" s="36">
+        <f t="shared" si="24"/>
+        <v>1.0046133567662565</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -4374,31 +4972,31 @@
     </row>
     <row r="55" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="67">
-        <f>IS!L24</f>
-        <v>-2209</v>
-      </c>
-      <c r="D55" s="67">
-        <f>IS!M24</f>
-        <v>-1005</v>
-      </c>
-      <c r="E55" s="67">
-        <f>IS!I18</f>
-        <v>-665</v>
-      </c>
-      <c r="F55" s="46">
-        <f>IS!D19</f>
-        <v>1154</v>
-      </c>
-      <c r="G55" s="46">
-        <f>IS!E19</f>
-        <v>6343</v>
-      </c>
-      <c r="H55" s="46">
-        <f>IS!F19</f>
-        <v>13719</v>
+        <v>95</v>
+      </c>
+      <c r="C55" s="35">
+        <f>IS!L25</f>
+        <v>32</v>
+      </c>
+      <c r="D55" s="35">
+        <f>IS!M25</f>
+        <v>58</v>
+      </c>
+      <c r="E55" s="35">
+        <f>IS!I19</f>
+        <v>110</v>
+      </c>
+      <c r="F55" s="35">
+        <f>IS!D20</f>
+        <v>292</v>
+      </c>
+      <c r="G55" s="35">
+        <f>IS!E20</f>
+        <v>699</v>
+      </c>
+      <c r="H55" s="35">
+        <f>IS!F20</f>
+        <v>1132</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -4428,31 +5026,31 @@
     </row>
     <row r="56" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="47">
-        <f>C55/C49</f>
-        <v>1.3535539215686274</v>
-      </c>
-      <c r="D56" s="47">
-        <f t="shared" ref="D56:H56" si="14">D55/D49</f>
-        <v>2.5902061855670104</v>
-      </c>
-      <c r="E56" s="47">
-        <f t="shared" si="14"/>
-        <v>9.6376811594202891</v>
-      </c>
-      <c r="F56" s="47">
-        <f t="shared" si="14"/>
-        <v>0.5787362086258776</v>
-      </c>
-      <c r="G56" s="47">
-        <f t="shared" si="14"/>
-        <v>0.97240533496857273</v>
-      </c>
-      <c r="H56" s="47">
-        <f t="shared" si="14"/>
-        <v>1.0046133567662565</v>
+        <v>79</v>
+      </c>
+      <c r="C56" s="7">
+        <f t="shared" ref="C56:H56" si="25">C55/C35</f>
+        <v>2.7213198401224593E-3</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="25"/>
+        <v>2.7025767671590329E-3</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="25"/>
+        <v>4.4755472373667511E-3</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="25"/>
+        <v>9.2592592592592587E-3</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="25"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="25"/>
+        <v>1.3896049691880878E-2</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -4515,32 +5113,30 @@
       <c r="AG57" s="2"/>
     </row>
     <row r="58" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B58" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="46">
-        <f>IS!L25</f>
-        <v>32</v>
-      </c>
-      <c r="D58" s="46">
-        <f>IS!M25</f>
-        <v>58</v>
-      </c>
-      <c r="E58" s="46">
-        <f>IS!I19</f>
-        <v>110</v>
-      </c>
-      <c r="F58" s="46">
-        <f>IS!D20</f>
-        <v>292</v>
-      </c>
-      <c r="G58" s="46">
-        <f>IS!E20</f>
-        <v>699</v>
+      <c r="B58" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="43">
+        <v>-2241</v>
+      </c>
+      <c r="D58" s="43">
+        <v>-1063</v>
+      </c>
+      <c r="E58" s="44">
+        <f>IS!I20</f>
+        <v>-775</v>
+      </c>
+      <c r="F58" s="45">
+        <f>IS!D21</f>
+        <v>862</v>
+      </c>
+      <c r="G58" s="45">
+        <f>IS!E21</f>
+        <v>5644</v>
       </c>
       <c r="H58" s="46">
-        <f>IS!F20</f>
-        <v>1132</v>
+        <f>IS!F21</f>
+        <v>12587</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -4569,32 +5165,32 @@
       <c r="AG58" s="2"/>
     </row>
     <row r="59" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="7">
-        <f t="shared" ref="C59:H59" si="15">C58/C38</f>
-        <v>2.7213198401224593E-3</v>
-      </c>
-      <c r="D59" s="7">
-        <f t="shared" si="15"/>
-        <v>2.7025767671590329E-3</v>
-      </c>
-      <c r="E59" s="7">
-        <f t="shared" si="15"/>
-        <v>4.4755472373667511E-3</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" si="15"/>
-        <v>9.2592592592592587E-3</v>
-      </c>
-      <c r="G59" s="7">
-        <f t="shared" si="15"/>
-        <v>1.2987012987012988E-2</v>
-      </c>
-      <c r="H59" s="7">
-        <f t="shared" si="15"/>
-        <v>1.3896049691880878E-2</v>
+      <c r="C59" s="41">
+        <f t="shared" ref="C59:H59" si="26">C58/C35</f>
+        <v>-0.190577430053576</v>
+      </c>
+      <c r="D59" s="41">
+        <f t="shared" si="26"/>
+        <v>-4.9531708680862964E-2</v>
+      </c>
+      <c r="E59" s="41">
+        <f t="shared" si="26"/>
+        <v>-3.1532264626902111E-2</v>
+      </c>
+      <c r="F59" s="41">
+        <f t="shared" si="26"/>
+        <v>2.7333840690005072E-2</v>
+      </c>
+      <c r="G59" s="41">
+        <f t="shared" si="26"/>
+        <v>0.10486223361759843</v>
+      </c>
+      <c r="H59" s="42">
+        <f t="shared" si="26"/>
+        <v>0.15451376101740688</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -4657,31 +5253,13 @@
       <c r="AG60" s="2"/>
     </row>
     <row r="61" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B61" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C61" s="58">
-        <v>-2241</v>
-      </c>
-      <c r="D61" s="58">
-        <v>-1063</v>
-      </c>
-      <c r="E61" s="59">
-        <f>IS!I20</f>
-        <v>-775</v>
-      </c>
-      <c r="F61" s="60">
-        <f>IS!D21</f>
-        <v>862</v>
-      </c>
-      <c r="G61" s="60">
-        <f>IS!E21</f>
-        <v>5644</v>
-      </c>
-      <c r="H61" s="61">
-        <f>IS!F21</f>
-        <v>12587</v>
-      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -4709,39 +5287,33 @@
       <c r="AG61" s="2"/>
     </row>
     <row r="62" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B62" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="56">
-        <f t="shared" ref="C62:H62" si="16">C61/C38</f>
-        <v>-0.190577430053576</v>
-      </c>
-      <c r="D62" s="56">
-        <f t="shared" si="16"/>
-        <v>-4.9531708680862964E-2</v>
-      </c>
-      <c r="E62" s="56">
-        <f t="shared" si="16"/>
-        <v>-3.1532264626902111E-2</v>
-      </c>
-      <c r="F62" s="56">
-        <f t="shared" si="16"/>
-        <v>2.7333840690005072E-2</v>
-      </c>
-      <c r="G62" s="56">
-        <f t="shared" si="16"/>
-        <v>0.10486223361759843</v>
-      </c>
-      <c r="H62" s="57">
-        <f t="shared" si="16"/>
-        <v>0.15451376101740688</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="B62" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="69"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -4797,13 +5369,33 @@
       <c r="AG63" s="2"/>
     </row>
     <row r="64" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="B64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" s="51">
+        <f>CF!K6</f>
+        <v>1636</v>
+      </c>
+      <c r="D64" s="51">
+        <f>CF!L6</f>
+        <v>1901</v>
+      </c>
+      <c r="E64" s="51">
+        <f>CF!F6</f>
+        <v>2154</v>
+      </c>
+      <c r="F64" s="51">
+        <f>CF!G6</f>
+        <v>2322</v>
+      </c>
+      <c r="G64" s="51">
+        <f>CF!H6</f>
+        <v>2911</v>
+      </c>
+      <c r="H64" s="35">
+        <f>H93</f>
+        <v>3747</v>
+      </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -4831,45 +5423,39 @@
       <c r="AG64" s="2"/>
     </row>
     <row r="65" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B65" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="36">
+        <f>C64/C68</f>
+        <v>-0.47906295754026357</v>
+      </c>
+      <c r="D65" s="36">
+        <f t="shared" ref="D65:H65" si="27">D64/D68</f>
+        <v>-0.90480723465016655</v>
+      </c>
+      <c r="E65" s="36">
+        <f t="shared" si="27"/>
+        <v>-1.6232102486812359</v>
+      </c>
+      <c r="F65" s="36">
+        <f t="shared" si="27"/>
+        <v>-0.73550839404497936</v>
+      </c>
+      <c r="G65" s="36">
+        <f t="shared" si="27"/>
+        <v>-0.44908978710274605</v>
+      </c>
+      <c r="H65" s="36">
+        <f t="shared" si="27"/>
+        <v>-0.5234702430846605</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -4891,13 +5477,33 @@
       <c r="AG65" s="2"/>
     </row>
     <row r="66" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="B66" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="8">
+        <f>C64/C35</f>
+        <v>0.13912747682626073</v>
+      </c>
+      <c r="D66" s="8">
+        <f>D64/D35</f>
+        <v>8.8579283351195193E-2</v>
+      </c>
+      <c r="E66" s="8">
+        <f>E64/E35</f>
+        <v>8.7639352266254369E-2</v>
+      </c>
+      <c r="F66" s="8">
+        <f>F64/F35</f>
+        <v>7.3630136986301373E-2</v>
+      </c>
+      <c r="G66" s="8">
+        <f>G64/G35</f>
+        <v>5.4084684985972541E-2</v>
+      </c>
+      <c r="H66" s="8">
+        <f>H64/H35</f>
+        <v>4.5996906533107458E-2</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -4925,30 +5531,13 @@
       <c r="AG66" s="2"/>
     </row>
     <row r="67" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B67" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C67" s="68">
-        <f>CF!K6</f>
-        <v>1636</v>
-      </c>
-      <c r="D67" s="68">
-        <f>CF!L6</f>
-        <v>1901</v>
-      </c>
-      <c r="E67" s="68">
-        <f>CF!F6</f>
-        <v>2154</v>
-      </c>
-      <c r="F67" s="68">
-        <f>CF!G6</f>
-        <v>2322</v>
-      </c>
-      <c r="G67" s="68">
-        <f>CF!H6</f>
-        <v>2911</v>
-      </c>
-      <c r="H67" s="46"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -4976,30 +5565,33 @@
       <c r="AG67" s="2"/>
     </row>
     <row r="68" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B68" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C68" s="47">
-        <f>C67/C71</f>
-        <v>-0.47906295754026357</v>
-      </c>
-      <c r="D68" s="47">
-        <f t="shared" ref="D68:G68" si="17">D67/D71</f>
-        <v>-0.90480723465016655</v>
-      </c>
-      <c r="E68" s="47">
-        <f t="shared" si="17"/>
-        <v>-1.6232102486812359</v>
-      </c>
-      <c r="F68" s="47">
-        <f t="shared" si="17"/>
-        <v>-0.73550839404497936</v>
-      </c>
-      <c r="G68" s="47">
-        <f t="shared" si="17"/>
-        <v>-0.44908978710274605</v>
-      </c>
-      <c r="H68" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="51">
+        <f>CF!K27</f>
+        <v>-3415</v>
+      </c>
+      <c r="D68" s="51">
+        <f>CF!L27</f>
+        <v>-2101</v>
+      </c>
+      <c r="E68" s="51">
+        <f>CF!F25</f>
+        <v>-1327</v>
+      </c>
+      <c r="F68" s="51">
+        <f>CF!G25</f>
+        <v>-3157</v>
+      </c>
+      <c r="G68" s="51">
+        <f>CF!H25</f>
+        <v>-6482</v>
+      </c>
+      <c r="H68" s="35">
+        <f>H96</f>
+        <v>-7158</v>
+      </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -5027,30 +5619,33 @@
       <c r="AG68" s="2"/>
     </row>
     <row r="69" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B69" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="8">
-        <f>C67/C38</f>
-        <v>0.13912747682626073</v>
-      </c>
-      <c r="D69" s="8">
-        <f>D67/D38</f>
-        <v>8.8579283351195193E-2</v>
-      </c>
-      <c r="E69" s="8">
-        <f>E67/E38</f>
-        <v>8.7639352266254369E-2</v>
-      </c>
-      <c r="F69" s="8">
-        <f>F67/F38</f>
-        <v>7.3630136986301373E-2</v>
-      </c>
-      <c r="G69" s="8">
-        <f>G67/G38</f>
-        <v>5.4084684985972541E-2</v>
-      </c>
-      <c r="H69" s="2"/>
+      <c r="B69" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="36">
+        <f>C68/C35</f>
+        <v>-0.29041585168806872</v>
+      </c>
+      <c r="D69" s="36">
+        <f>D68/D35</f>
+        <v>-9.7898513582778068E-2</v>
+      </c>
+      <c r="E69" s="36">
+        <f>E68/E35</f>
+        <v>-5.3991374399869806E-2</v>
+      </c>
+      <c r="F69" s="36">
+        <f>F68/F35</f>
+        <v>-0.1001078132927448</v>
+      </c>
+      <c r="G69" s="36">
+        <f>G68/G35</f>
+        <v>-0.12043178566783717</v>
+      </c>
+      <c r="H69" s="36">
+        <f>H68/H35</f>
+        <v>-8.7869190542829781E-2</v>
+      </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -5113,29 +5708,27 @@
     </row>
     <row r="71" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="68">
-        <f>CF!K27</f>
-        <v>-3415</v>
-      </c>
-      <c r="D71" s="68">
-        <f>CF!L27</f>
-        <v>-2101</v>
-      </c>
-      <c r="E71" s="68">
-        <f>CF!F25</f>
-        <v>-1327</v>
-      </c>
-      <c r="F71" s="68">
-        <f>CF!G25</f>
-        <v>-3157</v>
-      </c>
-      <c r="G71" s="68">
-        <f>CF!H25</f>
-        <v>-6482</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="C71" s="55">
+        <v>-497</v>
+      </c>
+      <c r="D71" s="26">
+        <v>58</v>
+      </c>
+      <c r="E71" s="55">
+        <v>-349</v>
+      </c>
+      <c r="F71" s="26">
+        <v>184</v>
+      </c>
+      <c r="G71" s="26">
+        <v>518</v>
+      </c>
+      <c r="H71" s="100">
+        <f>H99</f>
+        <v>25.641169010837917</v>
+      </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -5163,30 +5756,33 @@
       <c r="AG71" s="2"/>
     </row>
     <row r="72" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C72" s="47">
-        <f>C71/C38</f>
-        <v>-0.29041585168806872</v>
-      </c>
-      <c r="D72" s="47">
-        <f>D71/D38</f>
-        <v>-9.7898513582778068E-2</v>
-      </c>
-      <c r="E72" s="47">
-        <f>E71/E38</f>
-        <v>-5.3991374399869806E-2</v>
-      </c>
-      <c r="F72" s="47">
-        <f>F71/F38</f>
-        <v>-0.1001078132927448</v>
-      </c>
-      <c r="G72" s="47">
-        <f>G71/G38</f>
-        <v>-0.12043178566783717</v>
-      </c>
-      <c r="H72" s="2"/>
+      <c r="C72" s="36">
+        <f>C71/C35</f>
+        <v>-4.226549876690195E-2</v>
+      </c>
+      <c r="D72" s="36">
+        <f>D71/D35</f>
+        <v>2.7025767671590329E-3</v>
+      </c>
+      <c r="E72" s="36">
+        <f>E71/E35</f>
+        <v>-1.4199690780372691E-2</v>
+      </c>
+      <c r="F72" s="36">
+        <f>F71/F35</f>
+        <v>5.8346017250126836E-3</v>
+      </c>
+      <c r="G72" s="36">
+        <f>G71/G35</f>
+        <v>9.6241383795031867E-3</v>
+      </c>
+      <c r="H72" s="8">
+        <f>H71/H35</f>
+        <v>3.1476233103579481E-4</v>
+      </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -5221,12 +5817,24 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2">
+        <v>2</v>
+      </c>
+      <c r="K73" s="2">
+        <v>3</v>
+      </c>
+      <c r="L73" s="2">
+        <v>4</v>
+      </c>
+      <c r="M73" s="2">
+        <v>5</v>
+      </c>
+      <c r="N73" s="2">
+        <v>6</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -5248,31 +5856,45 @@
       <c r="AG73" s="2"/>
     </row>
     <row r="74" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B74" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="72">
-        <v>-497</v>
-      </c>
-      <c r="D74" s="28">
-        <v>58</v>
-      </c>
-      <c r="E74" s="72">
-        <v>-349</v>
-      </c>
-      <c r="F74" s="28">
-        <v>184</v>
-      </c>
-      <c r="G74" s="28">
-        <v>518</v>
-      </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="B74" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -5294,29 +5916,12 @@
       <c r="AG74" s="2"/>
     </row>
     <row r="75" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B75" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C75" s="47">
-        <f>C74/C38</f>
-        <v>-4.226549876690195E-2</v>
-      </c>
-      <c r="D75" s="47">
-        <f>D74/D38</f>
-        <v>2.7025767671590329E-3</v>
-      </c>
-      <c r="E75" s="47">
-        <f>E74/E38</f>
-        <v>-1.4199690780372691E-2</v>
-      </c>
-      <c r="F75" s="47">
-        <f>F74/F38</f>
-        <v>5.8346017250126836E-3</v>
-      </c>
-      <c r="G75" s="47">
-        <f>G74/G38</f>
-        <v>9.6241383795031867E-3</v>
-      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -5345,19 +5950,57 @@
       <c r="AG75" s="2"/>
     </row>
     <row r="76" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="B76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="58">
+        <f t="shared" ref="C76:H76" si="28">C35</f>
+        <v>11759</v>
+      </c>
+      <c r="D76" s="58">
+        <f t="shared" si="28"/>
+        <v>21461</v>
+      </c>
+      <c r="E76" s="58">
+        <f t="shared" si="28"/>
+        <v>24578</v>
+      </c>
+      <c r="F76" s="58">
+        <f t="shared" si="28"/>
+        <v>31536</v>
+      </c>
+      <c r="G76" s="58">
+        <f t="shared" si="28"/>
+        <v>53823</v>
+      </c>
+      <c r="H76" s="58">
+        <f t="shared" si="28"/>
+        <v>81462</v>
+      </c>
+      <c r="I76" s="6">
+        <f ca="1">H76*(1+I77)</f>
+        <v>109566.39</v>
+      </c>
+      <c r="J76" s="6">
+        <f t="shared" ref="J76:N76" ca="1" si="29">I76*(1+J77)</f>
+        <v>144627.6348</v>
+      </c>
+      <c r="K76" s="6">
+        <f t="shared" ca="1" si="29"/>
+        <v>186569.648892</v>
+      </c>
+      <c r="L76" s="6">
+        <f t="shared" ca="1" si="29"/>
+        <v>231346.36462608</v>
+      </c>
+      <c r="M76" s="6">
+        <f ca="1">L76*(1+M77)</f>
+        <v>277615.63755129598</v>
+      </c>
+      <c r="N76" s="6">
+        <f t="shared" ca="1" si="29"/>
+        <v>328974.53049828578</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -5379,44 +6022,53 @@
       <c r="AG76" s="2"/>
     </row>
     <row r="77" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B77" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K77" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>12</v>
+      <c r="B77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="57"/>
+      <c r="D77" s="7">
+        <f>D36</f>
+        <v>0.8250701590271281</v>
+      </c>
+      <c r="E77" s="7">
+        <f>E36</f>
+        <v>0.14524020315921904</v>
+      </c>
+      <c r="F77" s="7">
+        <f>F36</f>
+        <v>0.28309870615998056</v>
+      </c>
+      <c r="G77" s="7">
+        <f>G36</f>
+        <v>0.70671613394216126</v>
+      </c>
+      <c r="H77" s="7">
+        <f>H36</f>
+        <v>0.51351652639206291</v>
+      </c>
+      <c r="I77" s="8">
+        <f ca="1">OFFSET(I77,$C$10,0)</f>
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J77" s="8">
+        <f t="shared" ref="J77:N77" ca="1" si="30">OFFSET(J77,$C$10,0)</f>
+        <v>0.32</v>
+      </c>
+      <c r="K77" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L77" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>0.24</v>
+      </c>
+      <c r="M77" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>0.2</v>
+      </c>
+      <c r="N77" s="8">
+        <f t="shared" ca="1" si="30"/>
+        <v>0.185</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -5439,19 +6091,39 @@
       <c r="AG77" s="2"/>
     </row>
     <row r="78" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="B78" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="94">
+        <f>I79+$F$10</f>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="J78" s="94">
+        <f t="shared" ref="J78:K78" si="31">J79+$F$10</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="K78" s="94">
+        <f t="shared" si="31"/>
+        <v>0.27499999999999997</v>
+      </c>
+      <c r="L78" s="88">
+        <f>L79+$F$11</f>
+        <v>0.215</v>
+      </c>
+      <c r="M78" s="88">
+        <f t="shared" ref="M78:N78" si="32">M79+$F$11</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="N78" s="88">
+        <f t="shared" si="32"/>
+        <v>0.16</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -5473,56 +6145,32 @@
       <c r="AG78" s="2"/>
     </row>
     <row r="79" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B79" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C79" s="75">
-        <f t="shared" ref="C79:H79" si="18">C38</f>
-        <v>11759</v>
-      </c>
-      <c r="D79" s="75">
-        <f t="shared" si="18"/>
-        <v>21461</v>
-      </c>
-      <c r="E79" s="75">
-        <f t="shared" si="18"/>
-        <v>24578</v>
-      </c>
-      <c r="F79" s="75">
-        <f t="shared" si="18"/>
-        <v>31536</v>
-      </c>
-      <c r="G79" s="75">
-        <f t="shared" si="18"/>
-        <v>53823</v>
-      </c>
-      <c r="H79" s="75">
-        <f t="shared" si="18"/>
-        <v>81462</v>
-      </c>
-      <c r="I79" s="6">
-        <f ca="1">H79*(1+I80)</f>
-        <v>109566.39</v>
-      </c>
-      <c r="J79" s="6">
-        <f t="shared" ref="J79:N79" ca="1" si="19">I79*(1+J80)</f>
-        <v>144627.6348</v>
-      </c>
-      <c r="K79" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>182230.81984800001</v>
-      </c>
-      <c r="L79" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>224143.90841304002</v>
-      </c>
-      <c r="M79" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>268972.69009564799</v>
-      </c>
-      <c r="N79" s="6">
-        <f t="shared" ca="1" si="19"/>
-        <v>314698.04741190816</v>
+      <c r="B79" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="95">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="J79" s="95">
+        <v>0.32</v>
+      </c>
+      <c r="K79" s="95">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L79" s="95">
+        <v>0.24</v>
+      </c>
+      <c r="M79" s="95">
+        <v>0.2</v>
+      </c>
+      <c r="N79" s="96">
+        <v>0.185</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -5545,53 +6193,38 @@
       <c r="AG79" s="2"/>
     </row>
     <row r="80" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B80" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C80" s="74"/>
-      <c r="D80" s="7">
-        <f>D39</f>
-        <v>0.8250701590271281</v>
-      </c>
-      <c r="E80" s="7">
-        <f>E39</f>
-        <v>0.14524020315921904</v>
-      </c>
-      <c r="F80" s="7">
-        <f>F39</f>
-        <v>0.28309870615998056</v>
-      </c>
-      <c r="G80" s="7">
-        <f>G39</f>
-        <v>0.70671613394216126</v>
-      </c>
-      <c r="H80" s="7">
-        <f>H39</f>
-        <v>0.51351652639206291</v>
-      </c>
-      <c r="I80" s="8">
-        <f ca="1">OFFSET(I80,$C$10,0)</f>
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="J80" s="8">
-        <f t="shared" ref="J80:N80" ca="1" si="20">OFFSET(J80,$C$10,0)</f>
-        <v>0.32</v>
-      </c>
-      <c r="K80" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.26</v>
-      </c>
-      <c r="L80" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.23</v>
-      </c>
-      <c r="M80" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.2</v>
-      </c>
-      <c r="N80" s="8">
-        <f t="shared" ca="1" si="20"/>
-        <v>0.17</v>
+      <c r="B80" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="97">
+        <f>I79+$L$10</f>
+        <v>0.38</v>
+      </c>
+      <c r="J80" s="97">
+        <f t="shared" ref="J80:K80" si="33">J79+$L$10</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="K80" s="97">
+        <f t="shared" si="33"/>
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="L80" s="97">
+        <f>L79+$L$11</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M80" s="97">
+        <f t="shared" ref="M80:N80" si="34">M79+$L$11</f>
+        <v>0.245</v>
+      </c>
+      <c r="N80" s="97">
+        <f t="shared" si="34"/>
+        <v>0.22999999999999998</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -5614,39 +6247,19 @@
       <c r="AG80" s="2"/>
     </row>
     <row r="81" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B81" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="116">
-        <f>I82+$F$10</f>
-        <v>0.32999999999999996</v>
-      </c>
-      <c r="J81" s="116">
-        <f t="shared" ref="J81:K81" si="21">J82+$F$10</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="K81" s="116">
-        <f t="shared" si="21"/>
-        <v>0.245</v>
-      </c>
-      <c r="L81" s="110">
-        <f>L82+$F$11</f>
-        <v>0.20500000000000002</v>
-      </c>
-      <c r="M81" s="110">
-        <f t="shared" ref="M81:N81" si="22">M82+$F$11</f>
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="N81" s="110">
-        <f t="shared" si="22"/>
-        <v>0.14500000000000002</v>
-      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -5668,32 +6281,56 @@
       <c r="AG81" s="2"/>
     </row>
     <row r="82" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B82" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="117">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="J82" s="117">
-        <v>0.32</v>
-      </c>
-      <c r="K82" s="117">
-        <v>0.26</v>
-      </c>
-      <c r="L82" s="117">
-        <v>0.23</v>
-      </c>
-      <c r="M82" s="117">
-        <v>0.2</v>
-      </c>
-      <c r="N82" s="118">
-        <v>0.17</v>
+      <c r="B82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="61">
+        <f>IS!L20</f>
+        <v>-1632</v>
+      </c>
+      <c r="D82" s="61">
+        <f>IS!M20</f>
+        <v>-388</v>
+      </c>
+      <c r="E82" s="61">
+        <f>IS!I14</f>
+        <v>-69</v>
+      </c>
+      <c r="F82" s="60">
+        <f>IS!D15</f>
+        <v>1994</v>
+      </c>
+      <c r="G82" s="60">
+        <f>IS!E15</f>
+        <v>6523</v>
+      </c>
+      <c r="H82" s="60">
+        <f>IS!F15</f>
+        <v>13656</v>
+      </c>
+      <c r="I82" s="6">
+        <f ca="1">I76*I85</f>
+        <v>17530.6224</v>
+      </c>
+      <c r="J82" s="6">
+        <f t="shared" ref="J82:N82" ca="1" si="35">J76*J85</f>
+        <v>26032.974264</v>
+      </c>
+      <c r="K82" s="6">
+        <f t="shared" ca="1" si="35"/>
+        <v>39179.626267319996</v>
+      </c>
+      <c r="L82" s="6">
+        <f t="shared" ca="1" si="35"/>
+        <v>50896.200217737598</v>
+      </c>
+      <c r="M82" s="6">
+        <f t="shared" ca="1" si="35"/>
+        <v>58299.283885772151</v>
+      </c>
+      <c r="N82" s="6">
+        <f t="shared" ca="1" si="35"/>
+        <v>69084.651404640012</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -5716,38 +6353,56 @@
       <c r="AG82" s="2"/>
     </row>
     <row r="83" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B83" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="40"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="119">
-        <f>I82+$L$10</f>
-        <v>0.38</v>
-      </c>
-      <c r="J83" s="119">
-        <f t="shared" ref="J83:K83" si="23">J82+$L$10</f>
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="K83" s="119">
-        <f t="shared" si="23"/>
-        <v>0.29500000000000004</v>
-      </c>
-      <c r="L83" s="119">
-        <f>L82+$L$11</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M83" s="119">
-        <f t="shared" ref="M83:N83" si="24">M82+$L$11</f>
-        <v>0.245</v>
-      </c>
-      <c r="N83" s="119">
-        <f t="shared" si="24"/>
-        <v>0.21500000000000002</v>
+      <c r="B83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="59">
+        <f>C47</f>
+        <v>-0.13878731184624543</v>
+      </c>
+      <c r="D83" s="59">
+        <f t="shared" ref="D83:G83" si="36">D47</f>
+        <v>-1.8079306649270769E-2</v>
+      </c>
+      <c r="E83" s="59">
+        <f t="shared" si="36"/>
+        <v>-2.8073887216209618E-3</v>
+      </c>
+      <c r="F83" s="59">
+        <f t="shared" si="36"/>
+        <v>6.3229325215626589E-2</v>
+      </c>
+      <c r="G83" s="59">
+        <f t="shared" si="36"/>
+        <v>0.12119354179440016</v>
+      </c>
+      <c r="H83" s="59">
+        <f>H47</f>
+        <v>0.16763644398615304</v>
+      </c>
+      <c r="I83" s="7">
+        <f ca="1">OFFSET(I83,$C$11,0)</f>
+        <v>0.16</v>
+      </c>
+      <c r="J83" s="7">
+        <f ca="1">OFFSET(J83,$C$11,0)</f>
+        <v>0.18</v>
+      </c>
+      <c r="K83" s="7">
+        <f t="shared" ref="K83:N83" ca="1" si="37">OFFSET(K83,$C$11,0)</f>
+        <v>0.21</v>
+      </c>
+      <c r="L83" s="7">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.22</v>
+      </c>
+      <c r="M83" s="7">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.21</v>
+      </c>
+      <c r="N83" s="7">
+        <f t="shared" ca="1" si="37"/>
+        <v>0.21</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -5770,19 +6425,39 @@
       <c r="AG83" s="2"/>
     </row>
     <row r="84" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+      <c r="B84" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="89">
+        <f>I85</f>
+        <v>0.16</v>
+      </c>
+      <c r="J84" s="89">
+        <f>J85+$F$12</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="K84" s="89">
+        <f t="shared" ref="K84" si="38">K85+$F$12</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="L84" s="89">
+        <f>L85+$F$13</f>
+        <v>0.2</v>
+      </c>
+      <c r="M84" s="89">
+        <f t="shared" ref="M84:N84" si="39">M85+$F$13</f>
+        <v>0.19</v>
+      </c>
+      <c r="N84" s="90">
+        <f t="shared" si="39"/>
+        <v>0.19</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -5804,51 +6479,32 @@
       <c r="AG84" s="2"/>
     </row>
     <row r="85" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B85" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="77" cm="1">
-        <f t="array" ref="C85:H85">C55:H55</f>
-        <v>-2209</v>
-      </c>
-      <c r="D85" s="78">
-        <v>-1005</v>
-      </c>
-      <c r="E85" s="78">
-        <v>-665</v>
-      </c>
-      <c r="F85" s="79">
-        <v>1154</v>
-      </c>
-      <c r="G85" s="79">
-        <v>6343</v>
-      </c>
-      <c r="H85" s="79">
-        <v>13719</v>
-      </c>
-      <c r="I85" s="6">
-        <f ca="1">H85*(1+I86)</f>
-        <v>16188.419999999998</v>
-      </c>
-      <c r="J85" s="6">
-        <f t="shared" ref="J85:M85" ca="1" si="25">I85*(1+J86)</f>
-        <v>19345.161899999999</v>
-      </c>
-      <c r="K85" s="6">
-        <f ca="1">J85*(1+K86)</f>
-        <v>23310.920089499999</v>
-      </c>
-      <c r="L85" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>28206.213308294999</v>
-      </c>
-      <c r="M85" s="6">
-        <f t="shared" ca="1" si="25"/>
-        <v>34411.580236119895</v>
-      </c>
-      <c r="N85" s="6">
-        <f ca="1">M85*(1+N86)</f>
-        <v>42154.185789246876</v>
+      <c r="B85" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="82">
+        <v>0.16</v>
+      </c>
+      <c r="J85" s="87">
+        <v>0.18</v>
+      </c>
+      <c r="K85" s="82">
+        <v>0.21</v>
+      </c>
+      <c r="L85" s="82">
+        <v>0.22</v>
+      </c>
+      <c r="M85" s="82">
+        <v>0.21</v>
+      </c>
+      <c r="N85" s="91">
+        <v>0.21</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -5871,56 +6527,38 @@
       <c r="AG85" s="2"/>
     </row>
     <row r="86" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B86" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="76">
-        <f>C50</f>
-        <v>-0.13878731184624543</v>
-      </c>
-      <c r="D86" s="76">
-        <f t="shared" ref="D86:H86" si="26">D50</f>
-        <v>-1.8079306649270769E-2</v>
-      </c>
-      <c r="E86" s="76">
-        <f t="shared" si="26"/>
-        <v>-2.8073887216209618E-3</v>
-      </c>
-      <c r="F86" s="76">
-        <f t="shared" si="26"/>
-        <v>6.3229325215626589E-2</v>
-      </c>
-      <c r="G86" s="76">
-        <f t="shared" si="26"/>
-        <v>0.12119354179440016</v>
-      </c>
-      <c r="H86" s="76">
-        <f t="shared" si="26"/>
-        <v>0.16763644398615304</v>
-      </c>
-      <c r="I86" s="7">
-        <f ca="1">OFFSET(I86,$C$11,0)</f>
-        <v>0.18</v>
-      </c>
-      <c r="J86" s="7">
-        <f t="shared" ref="J86:N86" ca="1" si="27">OFFSET(J86,$C$11,0)</f>
+      <c r="B86" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="92">
+        <f>I85</f>
+        <v>0.16</v>
+      </c>
+      <c r="J86" s="92">
+        <f>J85+$L$12</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="K86" s="7">
-        <f t="shared" ca="1" si="27"/>
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="L86" s="7">
-        <f t="shared" ca="1" si="27"/>
-        <v>0.21</v>
-      </c>
-      <c r="M86" s="7">
-        <f t="shared" ca="1" si="27"/>
-        <v>0.22</v>
-      </c>
-      <c r="N86" s="7">
-        <f t="shared" ca="1" si="27"/>
-        <v>0.22500000000000001</v>
+      <c r="K86" s="92">
+        <f t="shared" ref="K86" si="40">K85+$L$12</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="L86" s="92">
+        <f>L85+$L$13</f>
+        <v>0.245</v>
+      </c>
+      <c r="M86" s="92">
+        <f>M85+$L$13</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="N86" s="93">
+        <f>N85+$L$13</f>
+        <v>0.23499999999999999</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -5943,39 +6581,19 @@
       <c r="AG86" s="2"/>
     </row>
     <row r="87" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B87" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="111">
-        <f>I88</f>
-        <v>0.18</v>
-      </c>
-      <c r="J87" s="111">
-        <f>J88+$F$12</f>
-        <v>0.185</v>
-      </c>
-      <c r="K87" s="111">
-        <f t="shared" ref="K87" si="28">K88+$F$12</f>
-        <v>0.19499999999999998</v>
-      </c>
-      <c r="L87" s="111">
-        <f>L88+$F$13</f>
-        <v>0.19</v>
-      </c>
-      <c r="M87" s="111">
-        <f t="shared" ref="M87:N87" si="29">M88+$F$13</f>
-        <v>0.2</v>
-      </c>
-      <c r="N87" s="112">
-        <f t="shared" si="29"/>
-        <v>0.20500000000000002</v>
-      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -5997,32 +6615,56 @@
       <c r="AG87" s="2"/>
     </row>
     <row r="88" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B88" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="102">
-        <v>0.18</v>
-      </c>
-      <c r="J88" s="109">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="K88" s="102">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="L88" s="102">
-        <v>0.21</v>
-      </c>
-      <c r="M88" s="102">
-        <v>0.22</v>
-      </c>
-      <c r="N88" s="113">
-        <v>0.22500000000000001</v>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="60">
+        <f>C55</f>
+        <v>32</v>
+      </c>
+      <c r="D88" s="60">
+        <f t="shared" ref="D88:G88" si="41">D55</f>
+        <v>58</v>
+      </c>
+      <c r="E88" s="60">
+        <f t="shared" si="41"/>
+        <v>110</v>
+      </c>
+      <c r="F88" s="60">
+        <f t="shared" si="41"/>
+        <v>292</v>
+      </c>
+      <c r="G88" s="60">
+        <f t="shared" si="41"/>
+        <v>699</v>
+      </c>
+      <c r="H88" s="60">
+        <f>H55</f>
+        <v>1132</v>
+      </c>
+      <c r="I88" s="6">
+        <f ca="1">I82*I89</f>
+        <v>1753.0622400000002</v>
+      </c>
+      <c r="J88" s="6">
+        <f t="shared" ref="J88:N88" ca="1" si="42">J82*J89</f>
+        <v>3904.9461395999997</v>
+      </c>
+      <c r="K88" s="6">
+        <f t="shared" ca="1" si="42"/>
+        <v>7052.3327281175989</v>
+      </c>
+      <c r="L88" s="6">
+        <f t="shared" ca="1" si="42"/>
+        <v>9161.3160391927668</v>
+      </c>
+      <c r="M88" s="6">
+        <f t="shared" ca="1" si="42"/>
+        <v>10493.871099438988</v>
+      </c>
+      <c r="N88" s="6">
+        <f t="shared" ca="1" si="42"/>
+        <v>12435.237252835203</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -6045,38 +6687,50 @@
       <c r="AG88" s="2"/>
     </row>
     <row r="89" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B89" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="40"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="114">
-        <f>I88</f>
+      <c r="B89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="8">
+        <f>C88/C82</f>
+        <v>-1.9607843137254902E-2</v>
+      </c>
+      <c r="D89" s="8">
+        <f t="shared" ref="D89:H89" si="43">D88/D82</f>
+        <v>-0.14948453608247422</v>
+      </c>
+      <c r="E89" s="8">
+        <f t="shared" si="43"/>
+        <v>-1.5942028985507246</v>
+      </c>
+      <c r="F89" s="8">
+        <f t="shared" si="43"/>
+        <v>0.14643931795386159</v>
+      </c>
+      <c r="G89" s="8">
+        <f t="shared" si="43"/>
+        <v>0.10715928253870918</v>
+      </c>
+      <c r="H89" s="8">
+        <f t="shared" si="43"/>
+        <v>8.2893966022261276E-2</v>
+      </c>
+      <c r="I89" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="J89" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="K89" s="68">
         <v>0.18</v>
       </c>
-      <c r="J89" s="114">
-        <f>J88+$L$12</f>
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="K89" s="114">
-        <f t="shared" ref="K89" si="30">K88+$L$12</f>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="L89" s="114">
-        <f>L88+$L$13</f>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="M89" s="114">
-        <f>M88+$L$13</f>
-        <v>0.245</v>
-      </c>
-      <c r="N89" s="115">
-        <f>N88+$L$13</f>
-        <v>0.25</v>
+      <c r="L89" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="M89" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="N89" s="68">
+        <v>0.18</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -6133,56 +6787,56 @@
       <c r="AG90" s="2"/>
     </row>
     <row r="91" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B91" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="77">
-        <f>C58</f>
-        <v>32</v>
-      </c>
-      <c r="D91" s="77">
-        <f t="shared" ref="D91:G91" si="31">D58</f>
-        <v>58</v>
-      </c>
-      <c r="E91" s="77">
-        <f t="shared" si="31"/>
-        <v>110</v>
-      </c>
-      <c r="F91" s="77">
-        <f t="shared" si="31"/>
-        <v>292</v>
-      </c>
-      <c r="G91" s="77">
-        <f t="shared" si="31"/>
-        <v>699</v>
-      </c>
-      <c r="H91" s="77">
-        <f>H58</f>
-        <v>1132</v>
-      </c>
-      <c r="I91" s="6">
-        <f ca="1">I85*I92</f>
-        <v>1618.8419999999999</v>
-      </c>
-      <c r="J91" s="6">
-        <f t="shared" ref="J91:N91" ca="1" si="32">J85*J92</f>
-        <v>2901.774285</v>
-      </c>
-      <c r="K91" s="6">
-        <f t="shared" ca="1" si="32"/>
-        <v>4195.9656161100002</v>
-      </c>
-      <c r="L91" s="6">
-        <f t="shared" ca="1" si="32"/>
-        <v>5077.1183954930993</v>
-      </c>
-      <c r="M91" s="6">
-        <f t="shared" ca="1" si="32"/>
-        <v>6194.0844425015812</v>
-      </c>
-      <c r="N91" s="6">
-        <f t="shared" ca="1" si="32"/>
-        <v>7587.753442064437</v>
+      <c r="B91" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" s="101">
+        <f t="shared" ref="C91:G91" si="44">C82-C88</f>
+        <v>-1664</v>
+      </c>
+      <c r="D91" s="101">
+        <f t="shared" si="44"/>
+        <v>-446</v>
+      </c>
+      <c r="E91" s="101">
+        <f t="shared" si="44"/>
+        <v>-179</v>
+      </c>
+      <c r="F91" s="101">
+        <f t="shared" si="44"/>
+        <v>1702</v>
+      </c>
+      <c r="G91" s="101">
+        <f t="shared" si="44"/>
+        <v>5824</v>
+      </c>
+      <c r="H91" s="101">
+        <f>H82-H88</f>
+        <v>12524</v>
+      </c>
+      <c r="I91" s="101">
+        <f ca="1">I82-I88</f>
+        <v>15777.560160000001</v>
+      </c>
+      <c r="J91" s="101">
+        <f t="shared" ref="J91:N91" ca="1" si="45">J82-J88</f>
+        <v>22128.0281244</v>
+      </c>
+      <c r="K91" s="101">
+        <f t="shared" ca="1" si="45"/>
+        <v>32127.293539202397</v>
+      </c>
+      <c r="L91" s="101">
+        <f t="shared" ca="1" si="45"/>
+        <v>41734.884178544831</v>
+      </c>
+      <c r="M91" s="101">
+        <f t="shared" ca="1" si="45"/>
+        <v>47805.412786333167</v>
+      </c>
+      <c r="N91" s="101">
+        <f t="shared" ca="1" si="45"/>
+        <v>56649.414151804813</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -6205,51 +6859,19 @@
       <c r="AG91" s="2"/>
     </row>
     <row r="92" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B92" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" s="8">
-        <f>C91/C85</f>
-        <v>-1.4486192847442281E-2</v>
-      </c>
-      <c r="D92" s="8">
-        <f t="shared" ref="D92:H92" si="33">D91/D85</f>
-        <v>-5.7711442786069649E-2</v>
-      </c>
-      <c r="E92" s="8">
-        <f t="shared" si="33"/>
-        <v>-0.16541353383458646</v>
-      </c>
-      <c r="F92" s="8">
-        <f t="shared" si="33"/>
-        <v>0.2530329289428076</v>
-      </c>
-      <c r="G92" s="8">
-        <f t="shared" si="33"/>
-        <v>0.11020022071574964</v>
-      </c>
-      <c r="H92" s="8">
-        <f t="shared" si="33"/>
-        <v>8.2513302718857054E-2</v>
-      </c>
-      <c r="I92" s="88">
-        <v>0.1</v>
-      </c>
-      <c r="J92" s="88">
-        <v>0.15</v>
-      </c>
-      <c r="K92" s="88">
-        <v>0.18</v>
-      </c>
-      <c r="L92" s="88">
-        <v>0.18</v>
-      </c>
-      <c r="M92" s="88">
-        <v>0.18</v>
-      </c>
-      <c r="N92" s="88">
-        <v>0.18</v>
-      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -6271,19 +6893,57 @@
       <c r="AG92" s="2"/>
     </row>
     <row r="93" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="35">
+        <f>C64</f>
+        <v>1636</v>
+      </c>
+      <c r="D93" s="35">
+        <f t="shared" ref="D93:G93" si="46">D64</f>
+        <v>1901</v>
+      </c>
+      <c r="E93" s="35">
+        <f t="shared" si="46"/>
+        <v>2154</v>
+      </c>
+      <c r="F93" s="35">
+        <f t="shared" si="46"/>
+        <v>2322</v>
+      </c>
+      <c r="G93" s="35">
+        <f t="shared" si="46"/>
+        <v>2911</v>
+      </c>
+      <c r="H93" s="35">
+        <f>CF!C6</f>
+        <v>3747</v>
+      </c>
+      <c r="I93" s="6">
+        <f ca="1">I76*I94</f>
+        <v>4930.4875499999998</v>
+      </c>
+      <c r="J93" s="6">
+        <f t="shared" ref="J93:N93" ca="1" si="47">J76*J94</f>
+        <v>6508.2435660000001</v>
+      </c>
+      <c r="K93" s="6">
+        <f t="shared" ca="1" si="47"/>
+        <v>6529.9377112200009</v>
+      </c>
+      <c r="L93" s="6">
+        <f t="shared" ca="1" si="47"/>
+        <v>8097.1227619128013</v>
+      </c>
+      <c r="M93" s="6">
+        <f t="shared" ca="1" si="47"/>
+        <v>9716.5473142953597</v>
+      </c>
+      <c r="N93" s="6">
+        <f t="shared" ca="1" si="47"/>
+        <v>11514.108567440004</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -6305,41 +6965,50 @@
       <c r="AG93" s="2"/>
     </row>
     <row r="94" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B94" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="C94" s="80"/>
-      <c r="D94" s="80"/>
-      <c r="E94" s="80"/>
-      <c r="F94" s="80"/>
-      <c r="G94" s="80"/>
-      <c r="H94" s="123">
-        <f>H85-H91</f>
-        <v>12587</v>
-      </c>
-      <c r="I94" s="123">
-        <f ca="1">I85-I91</f>
-        <v>14569.577999999998</v>
-      </c>
-      <c r="J94" s="123">
-        <f t="shared" ref="J94:N94" ca="1" si="34">J85-J91</f>
-        <v>16443.387615</v>
-      </c>
-      <c r="K94" s="123">
-        <f t="shared" ca="1" si="34"/>
-        <v>19114.95447339</v>
-      </c>
-      <c r="L94" s="123">
-        <f t="shared" ca="1" si="34"/>
-        <v>23129.094912801898</v>
-      </c>
-      <c r="M94" s="123">
-        <f t="shared" ca="1" si="34"/>
-        <v>28217.495793618313</v>
-      </c>
-      <c r="N94" s="123">
-        <f t="shared" ca="1" si="34"/>
-        <v>34566.432347182439</v>
+      <c r="B94" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="36">
+        <f>C93/C35</f>
+        <v>0.13912747682626073</v>
+      </c>
+      <c r="D94" s="36">
+        <f>D93/D35</f>
+        <v>8.8579283351195193E-2</v>
+      </c>
+      <c r="E94" s="36">
+        <f>E93/E35</f>
+        <v>8.7639352266254369E-2</v>
+      </c>
+      <c r="F94" s="36">
+        <f>F93/F35</f>
+        <v>7.3630136986301373E-2</v>
+      </c>
+      <c r="G94" s="36">
+        <f>G93/G35</f>
+        <v>5.4084684985972541E-2</v>
+      </c>
+      <c r="H94" s="36">
+        <f>H93/H76</f>
+        <v>4.5996906533107458E-2</v>
+      </c>
+      <c r="I94" s="68">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J94" s="82">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K94" s="82">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L94" s="82">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M94" s="82">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N94" s="82">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -6397,55 +7066,55 @@
     </row>
     <row r="96" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B96" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C96" s="46">
-        <f>C67</f>
-        <v>1636</v>
-      </c>
-      <c r="D96" s="46">
-        <f t="shared" ref="D96:G96" si="35">D67</f>
-        <v>1901</v>
-      </c>
-      <c r="E96" s="46">
-        <f t="shared" si="35"/>
-        <v>2154</v>
-      </c>
-      <c r="F96" s="46">
-        <f t="shared" si="35"/>
-        <v>2322</v>
-      </c>
-      <c r="G96" s="46">
-        <f t="shared" si="35"/>
-        <v>2911</v>
-      </c>
-      <c r="H96" s="46">
-        <f>CF!C6</f>
-        <v>3747</v>
+        <v>233</v>
+      </c>
+      <c r="C96" s="35">
+        <f>C68</f>
+        <v>-3415</v>
+      </c>
+      <c r="D96" s="35">
+        <f t="shared" ref="D96:G96" si="48">D68</f>
+        <v>-2101</v>
+      </c>
+      <c r="E96" s="35">
+        <f t="shared" si="48"/>
+        <v>-1327</v>
+      </c>
+      <c r="F96" s="35">
+        <f t="shared" si="48"/>
+        <v>-3157</v>
+      </c>
+      <c r="G96" s="35">
+        <f t="shared" si="48"/>
+        <v>-6482</v>
+      </c>
+      <c r="H96" s="35">
+        <f>CF!C24</f>
+        <v>-7158</v>
       </c>
       <c r="I96" s="6">
-        <f ca="1">I79*I97</f>
-        <v>4930.4875499999998</v>
+        <f ca="1">I76*I97</f>
+        <v>-7669.6473000000005</v>
       </c>
       <c r="J96" s="6">
-        <f t="shared" ref="J96:N96" ca="1" si="36">J79*J97</f>
-        <v>6508.2435660000001</v>
+        <f t="shared" ref="J96:N96" ca="1" si="49">J76*J97</f>
+        <v>-8677.6580880000001</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" ca="1" si="36"/>
-        <v>5466.9245954400003</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>-9328.4824446000002</v>
       </c>
       <c r="L96" s="6">
-        <f t="shared" ca="1" si="36"/>
-        <v>6724.3172523911999</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>-11567.318231304002</v>
       </c>
       <c r="M96" s="6">
-        <f t="shared" ca="1" si="36"/>
-        <v>8069.1807028694393</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>-13880.781877564799</v>
       </c>
       <c r="N96" s="6">
-        <f t="shared" ca="1" si="36"/>
-        <v>9440.9414223572439</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>-16448.726524914291</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -6471,47 +7140,47 @@
       <c r="B97" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C97" s="47">
-        <f>C96/C38</f>
-        <v>0.13912747682626073</v>
-      </c>
-      <c r="D97" s="47">
-        <f>D96/D38</f>
-        <v>8.8579283351195193E-2</v>
-      </c>
-      <c r="E97" s="47">
-        <f>E96/E38</f>
-        <v>8.7639352266254369E-2</v>
-      </c>
-      <c r="F97" s="47">
-        <f>F96/F38</f>
-        <v>7.3630136986301373E-2</v>
-      </c>
-      <c r="G97" s="47">
-        <f>G96/G38</f>
-        <v>5.4084684985972541E-2</v>
-      </c>
-      <c r="H97" s="47">
-        <f>H96/H79</f>
-        <v>4.5996906533107458E-2</v>
-      </c>
-      <c r="I97" s="88">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="J97" s="102">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="K97" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="L97" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="M97" s="88">
-        <v>0.03</v>
-      </c>
-      <c r="N97" s="88">
-        <v>0.03</v>
+      <c r="C97" s="36">
+        <f>C69</f>
+        <v>-0.29041585168806872</v>
+      </c>
+      <c r="D97" s="36">
+        <f t="shared" ref="D97:G97" si="50">D69</f>
+        <v>-9.7898513582778068E-2</v>
+      </c>
+      <c r="E97" s="36">
+        <f t="shared" si="50"/>
+        <v>-5.3991374399869806E-2</v>
+      </c>
+      <c r="F97" s="36">
+        <f t="shared" si="50"/>
+        <v>-0.1001078132927448</v>
+      </c>
+      <c r="G97" s="36">
+        <f t="shared" si="50"/>
+        <v>-0.12043178566783717</v>
+      </c>
+      <c r="H97" s="36">
+        <f>H96/H35</f>
+        <v>-8.7869190542829781E-2</v>
+      </c>
+      <c r="I97" s="68">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="J97" s="68">
+        <v>-0.06</v>
+      </c>
+      <c r="K97" s="68">
+        <v>-0.05</v>
+      </c>
+      <c r="L97" s="68">
+        <v>-0.05</v>
+      </c>
+      <c r="M97" s="68">
+        <v>-0.05</v>
+      </c>
+      <c r="N97" s="68">
+        <v>-0.05</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -6569,55 +7238,55 @@
     </row>
     <row r="99" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B99" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C99" s="46">
+        <v>239</v>
+      </c>
+      <c r="C99" s="55">
         <f>C71</f>
-        <v>-3415</v>
-      </c>
-      <c r="D99" s="46">
-        <f t="shared" ref="D99:G99" si="37">D71</f>
-        <v>-2101</v>
-      </c>
-      <c r="E99" s="46">
-        <f t="shared" si="37"/>
-        <v>-1327</v>
-      </c>
-      <c r="F99" s="46">
-        <f t="shared" si="37"/>
-        <v>-3157</v>
-      </c>
-      <c r="G99" s="46">
-        <f t="shared" si="37"/>
-        <v>-6482</v>
-      </c>
-      <c r="H99" s="46">
-        <f>CF!C24</f>
-        <v>-7158</v>
-      </c>
-      <c r="I99" s="6">
-        <f ca="1">I79*I100</f>
-        <v>-7669.6473000000005</v>
-      </c>
-      <c r="J99" s="6">
-        <f t="shared" ref="J99:N99" ca="1" si="38">J79*J100</f>
-        <v>-8677.6580880000001</v>
-      </c>
-      <c r="K99" s="6">
-        <f t="shared" ca="1" si="38"/>
-        <v>-9111.5409924000014</v>
-      </c>
-      <c r="L99" s="6">
-        <f t="shared" ca="1" si="38"/>
-        <v>-11207.195420652002</v>
-      </c>
-      <c r="M99" s="6">
-        <f t="shared" ca="1" si="38"/>
-        <v>-13448.6345047824</v>
-      </c>
-      <c r="N99" s="6">
-        <f t="shared" ca="1" si="38"/>
-        <v>-15734.90237059541</v>
+        <v>-497</v>
+      </c>
+      <c r="D99" s="55">
+        <f t="shared" ref="D99:G99" si="51">D71</f>
+        <v>58</v>
+      </c>
+      <c r="E99" s="55">
+        <f t="shared" si="51"/>
+        <v>-349</v>
+      </c>
+      <c r="F99" s="55">
+        <f t="shared" si="51"/>
+        <v>184</v>
+      </c>
+      <c r="G99" s="55">
+        <f t="shared" si="51"/>
+        <v>518</v>
+      </c>
+      <c r="H99" s="100">
+        <f>H76*H100</f>
+        <v>25.641169010837917</v>
+      </c>
+      <c r="I99" s="100">
+        <f t="shared" ref="I99:N99" ca="1" si="52">I76*I100</f>
+        <v>34.487372319576998</v>
+      </c>
+      <c r="J99" s="100">
+        <f ca="1">J76*J100</f>
+        <v>45.523331461841636</v>
+      </c>
+      <c r="K99" s="100">
+        <f t="shared" ca="1" si="52"/>
+        <v>58.725097585775714</v>
+      </c>
+      <c r="L99" s="100">
+        <f t="shared" ca="1" si="52"/>
+        <v>72.819121006361883</v>
+      </c>
+      <c r="M99" s="100">
+        <f t="shared" ca="1" si="52"/>
+        <v>87.382945207634251</v>
+      </c>
+      <c r="N99" s="100">
+        <f t="shared" ca="1" si="52"/>
+        <v>103.54879007104661</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -6643,47 +7312,52 @@
       <c r="B100" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C100" s="47">
+      <c r="C100" s="36">
         <f>C72</f>
-        <v>-0.29041585168806872</v>
-      </c>
-      <c r="D100" s="47">
-        <f t="shared" ref="D100:G100" si="39">D72</f>
-        <v>-9.7898513582778068E-2</v>
-      </c>
-      <c r="E100" s="47">
-        <f t="shared" si="39"/>
-        <v>-5.3991374399869806E-2</v>
-      </c>
-      <c r="F100" s="47">
-        <f t="shared" si="39"/>
-        <v>-0.1001078132927448</v>
-      </c>
-      <c r="G100" s="47">
-        <f t="shared" si="39"/>
-        <v>-0.12043178566783717</v>
-      </c>
-      <c r="H100" s="47">
-        <f>H99/H38</f>
-        <v>-8.7869190542829781E-2</v>
-      </c>
-      <c r="I100" s="88">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="J100" s="88">
-        <v>-0.06</v>
-      </c>
-      <c r="K100" s="88">
-        <v>-0.05</v>
-      </c>
-      <c r="L100" s="88">
-        <v>-0.05</v>
-      </c>
-      <c r="M100" s="88">
-        <v>-0.05</v>
-      </c>
-      <c r="N100" s="88">
-        <v>-0.05</v>
+        <v>-4.226549876690195E-2</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="36">
+        <f t="shared" ref="E100:G100" si="53">E72</f>
+        <v>-1.4199690780372691E-2</v>
+      </c>
+      <c r="F100" s="36">
+        <f t="shared" si="53"/>
+        <v>5.8346017250126836E-3</v>
+      </c>
+      <c r="G100" s="36">
+        <f t="shared" si="53"/>
+        <v>9.6241383795031867E-3</v>
+      </c>
+      <c r="H100" s="107">
+        <f>AVERAGE(D100:G100)</f>
+        <v>3.1476233103579481E-4</v>
+      </c>
+      <c r="I100" s="95">
+        <f>H100</f>
+        <v>3.1476233103579481E-4</v>
+      </c>
+      <c r="J100" s="102">
+        <f>H100</f>
+        <v>3.1476233103579481E-4</v>
+      </c>
+      <c r="K100" s="95">
+        <f>H100</f>
+        <v>3.1476233103579481E-4</v>
+      </c>
+      <c r="L100" s="98">
+        <f>H100</f>
+        <v>3.1476233103579481E-4</v>
+      </c>
+      <c r="M100" s="98">
+        <f>H100</f>
+        <v>3.1476233103579481E-4</v>
+      </c>
+      <c r="N100" s="98">
+        <f>H100</f>
+        <v>3.1476233103579481E-4</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -6740,56 +7414,38 @@
       <c r="AG101" s="2"/>
     </row>
     <row r="102" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B102" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" s="72">
-        <f>C74</f>
-        <v>-497</v>
-      </c>
-      <c r="D102" s="72">
-        <f t="shared" ref="D102:G102" si="40">D74</f>
-        <v>58</v>
-      </c>
-      <c r="E102" s="72">
-        <f t="shared" si="40"/>
-        <v>-349</v>
-      </c>
-      <c r="F102" s="72">
-        <f t="shared" si="40"/>
-        <v>184</v>
-      </c>
-      <c r="G102" s="72">
-        <f t="shared" si="40"/>
-        <v>518</v>
-      </c>
-      <c r="H102" s="122">
-        <f>H79*H103</f>
-        <v>25.641169010837917</v>
-      </c>
-      <c r="I102" s="122">
-        <f t="shared" ref="I102:N102" ca="1" si="41">I79*I103</f>
-        <v>34.487372319576998</v>
-      </c>
-      <c r="J102" s="122">
-        <f ca="1">J79*J103</f>
-        <v>45.523331461841636</v>
-      </c>
-      <c r="K102" s="122">
-        <f t="shared" ca="1" si="41"/>
-        <v>57.359397641920467</v>
-      </c>
-      <c r="L102" s="122">
-        <f t="shared" ca="1" si="41"/>
-        <v>70.552059099562172</v>
-      </c>
-      <c r="M102" s="122">
-        <f t="shared" ca="1" si="41"/>
-        <v>84.6624709194746</v>
-      </c>
-      <c r="N102" s="122">
-        <f t="shared" ca="1" si="41"/>
-        <v>99.055090975785291</v>
+      <c r="B102" s="109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="110"/>
+      <c r="D102" s="110"/>
+      <c r="E102" s="110"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110">
+        <f ca="1">I91+I93+I96-I99</f>
+        <v>13003.913037680421</v>
+      </c>
+      <c r="J102" s="110">
+        <f t="shared" ref="J102:N102" ca="1" si="54">J91+J93+J96-J99</f>
+        <v>19913.090270938159</v>
+      </c>
+      <c r="K102" s="110">
+        <f ca="1">K91+K93+K96-K99</f>
+        <v>29270.023708236622</v>
+      </c>
+      <c r="L102" s="110">
+        <f t="shared" ca="1" si="54"/>
+        <v>38191.869588147274</v>
+      </c>
+      <c r="M102" s="110">
+        <f t="shared" ca="1" si="54"/>
+        <v>43553.795277856094</v>
+      </c>
+      <c r="N102" s="111">
+        <f t="shared" ca="1" si="54"/>
+        <v>51611.247404259484</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -6812,55 +7468,38 @@
       <c r="AG102" s="2"/>
     </row>
     <row r="103" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B103" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C103" s="47">
-        <f>C75</f>
-        <v>-4.226549876690195E-2</v>
-      </c>
-      <c r="D103" s="8">
-        <v>0</v>
-      </c>
-      <c r="E103" s="47">
-        <f t="shared" ref="E103:G103" si="42">E75</f>
-        <v>-1.4199690780372691E-2</v>
-      </c>
-      <c r="F103" s="47">
-        <f t="shared" si="42"/>
-        <v>5.8346017250126836E-3</v>
-      </c>
-      <c r="G103" s="47">
-        <f t="shared" si="42"/>
-        <v>9.6241383795031867E-3</v>
-      </c>
-      <c r="H103" s="125">
-        <f>AVERAGE(D103:G103)</f>
-        <v>3.1476233103579481E-4</v>
-      </c>
-      <c r="I103" s="117">
-        <f>H103</f>
-        <v>3.1476233103579481E-4</v>
-      </c>
-      <c r="J103" s="124">
-        <f>H103</f>
-        <v>3.1476233103579481E-4</v>
-      </c>
-      <c r="K103" s="117">
-        <f>H103</f>
-        <v>3.1476233103579481E-4</v>
-      </c>
-      <c r="L103" s="120">
-        <f>H103</f>
-        <v>3.1476233103579481E-4</v>
-      </c>
-      <c r="M103" s="120">
-        <f>H103</f>
-        <v>3.1476233103579481E-4</v>
-      </c>
-      <c r="N103" s="120">
-        <f>H103</f>
-        <v>3.1476233103579481E-4</v>
+      <c r="B103" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" s="113"/>
+      <c r="D103" s="113"/>
+      <c r="E103" s="113"/>
+      <c r="F103" s="113"/>
+      <c r="G103" s="113"/>
+      <c r="H103" s="113"/>
+      <c r="I103" s="114">
+        <f t="shared" ref="I103:N103" ca="1" si="55">I102/(1+wacc)^I73</f>
+        <v>11645.805747103954</v>
+      </c>
+      <c r="J103" s="114">
+        <f t="shared" ca="1" si="55"/>
+        <v>15970.908920589451</v>
+      </c>
+      <c r="K103" s="114">
+        <f t="shared" ca="1" si="55"/>
+        <v>21023.718356472356</v>
+      </c>
+      <c r="L103" s="114">
+        <f t="shared" ca="1" si="55"/>
+        <v>24567.041509608254</v>
+      </c>
+      <c r="M103" s="114">
+        <f t="shared" ca="1" si="55"/>
+        <v>25090.160044202825</v>
+      </c>
+      <c r="N103" s="114">
+        <f t="shared" ca="1" si="55"/>
+        <v>26626.695217997789</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -6917,21 +7556,19 @@
       <c r="AG104" s="2"/>
     </row>
     <row r="105" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B105" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="74"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -6953,21 +7590,24 @@
       <c r="AG105" s="2"/>
     </row>
     <row r="106" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B106" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="31"/>
+      <c r="B106" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="62"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="62"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="104">
+        <f ca="1">N102*(1+tgr)/(wacc-tgr)</f>
+        <v>577415.91626963043</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -6989,19 +7629,24 @@
       <c r="AG106" s="2"/>
     </row>
     <row r="107" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
+      <c r="B107" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="62"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="62"/>
+      <c r="J107" s="62"/>
+      <c r="K107" s="62"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="104">
+        <f ca="1">N106/(1+wacc)^N73</f>
+        <v>297893.93571726588</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -7057,21 +7702,24 @@
       <c r="AG108" s="2"/>
     </row>
     <row r="109" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B109" s="81" t="s">
-        <v>254</v>
-      </c>
-      <c r="C109" s="81"/>
-      <c r="D109" s="81"/>
-      <c r="E109" s="81"/>
-      <c r="F109" s="81"/>
-      <c r="G109" s="81"/>
-      <c r="H109" s="81"/>
-      <c r="I109" s="81"/>
-      <c r="J109" s="81"/>
-      <c r="K109" s="81"/>
-      <c r="L109" s="81"/>
-      <c r="M109" s="81"/>
-      <c r="N109" s="127"/>
+      <c r="B109" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="6">
+        <f ca="1">SUM(I103:N103)+N107</f>
+        <v>422818.26551324048</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -7093,21 +7741,24 @@
       <c r="AG109" s="2"/>
     </row>
     <row r="110" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B110" s="81" t="s">
-        <v>255</v>
-      </c>
-      <c r="C110" s="81"/>
-      <c r="D110" s="81"/>
-      <c r="E110" s="81"/>
-      <c r="F110" s="81"/>
-      <c r="G110" s="81"/>
-      <c r="H110" s="81"/>
-      <c r="I110" s="81"/>
-      <c r="J110" s="81"/>
-      <c r="K110" s="81"/>
-      <c r="L110" s="81"/>
-      <c r="M110" s="81"/>
-      <c r="N110" s="127"/>
+      <c r="B110" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2">
+        <f>WACC!E17</f>
+        <v>3553</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
@@ -7129,7 +7780,9 @@
       <c r="AG110" s="2"/>
     </row>
     <row r="111" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -7141,7 +7794,10 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
+      <c r="N111" s="35">
+        <f>BS!D4+BS!D5</f>
+        <v>22185</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
       <c r="Q111" s="2"/>
@@ -7163,21 +7819,24 @@
       <c r="AG111" s="2"/>
     </row>
     <row r="112" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B112" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="74"/>
+      <c r="B112" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="123">
+        <f ca="1">N109-N110+N111</f>
+        <v>441450.26551324048</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
       <c r="Q112" s="2"/>
@@ -7199,9 +7858,7 @@
       <c r="AG112" s="2"/>
     </row>
     <row r="113" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B113" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -7213,7 +7870,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
+      <c r="N113" s="57"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2"/>
@@ -7236,7 +7893,7 @@
     </row>
     <row r="114" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B114" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -7249,7 +7906,9 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+      <c r="N114" s="2">
+        <v>3710</v>
+      </c>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
       <c r="Q114" s="2"/>
@@ -7271,21 +7930,24 @@
       <c r="AG114" s="2"/>
     </row>
     <row r="115" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B115" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+      <c r="B115" s="155" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" s="156"/>
+      <c r="D115" s="156"/>
+      <c r="E115" s="156"/>
+      <c r="F115" s="156"/>
+      <c r="G115" s="156"/>
+      <c r="H115" s="156"/>
+      <c r="I115" s="156"/>
+      <c r="J115" s="156"/>
+      <c r="K115" s="156"/>
+      <c r="L115" s="156"/>
+      <c r="M115" s="156"/>
+      <c r="N115" s="157">
+        <f ca="1">N112/N114</f>
+        <v>118.98928989575215</v>
+      </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
       <c r="Q115" s="2"/>
@@ -7307,9 +7969,7 @@
       <c r="AG115" s="2"/>
     </row>
     <row r="116" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B116" s="2" t="s">
-        <v>260</v>
-      </c>
+      <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -7343,9 +8003,7 @@
       <c r="AG116" s="2"/>
     </row>
     <row r="117" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B117" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -11968,74 +12626,6 @@
       <c r="AF252" s="2"/>
       <c r="AG252" s="2"/>
     </row>
-    <row r="253" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-      <c r="E253" s="2"/>
-      <c r="F253" s="2"/>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
-      <c r="K253" s="2"/>
-      <c r="L253" s="2"/>
-      <c r="M253" s="2"/>
-      <c r="N253" s="2"/>
-      <c r="O253" s="2"/>
-      <c r="P253" s="2"/>
-      <c r="Q253" s="2"/>
-      <c r="R253" s="2"/>
-      <c r="S253" s="2"/>
-      <c r="T253" s="2"/>
-      <c r="U253" s="2"/>
-      <c r="V253" s="2"/>
-      <c r="W253" s="2"/>
-      <c r="X253" s="2"/>
-      <c r="Y253" s="2"/>
-      <c r="Z253" s="2"/>
-      <c r="AA253" s="2"/>
-      <c r="AB253" s="2"/>
-      <c r="AC253" s="2"/>
-      <c r="AD253" s="2"/>
-      <c r="AE253" s="2"/>
-      <c r="AF253" s="2"/>
-      <c r="AG253" s="2"/>
-    </row>
-    <row r="254" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2"/>
-      <c r="N254" s="2"/>
-      <c r="O254" s="2"/>
-      <c r="P254" s="2"/>
-      <c r="Q254" s="2"/>
-      <c r="R254" s="2"/>
-      <c r="S254" s="2"/>
-      <c r="T254" s="2"/>
-      <c r="U254" s="2"/>
-      <c r="V254" s="2"/>
-      <c r="W254" s="2"/>
-      <c r="X254" s="2"/>
-      <c r="Y254" s="2"/>
-      <c r="Z254" s="2"/>
-      <c r="AA254" s="2"/>
-      <c r="AB254" s="2"/>
-      <c r="AC254" s="2"/>
-      <c r="AD254" s="2"/>
-      <c r="AE254" s="2"/>
-      <c r="AF254" s="2"/>
-      <c r="AG254" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:B3"/>
@@ -12045,11 +12635,185 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566BAADB-8735-43D6-9854-2403BEA3D912}">
+  <dimension ref="B2:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="13.77734375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="117" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="117"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="6">
+        <v>622980</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" s="8">
+        <f>E10/(E10+E17)</f>
+        <v>0.99432910956007103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="106">
+        <f>E13+E14*E15</f>
+        <v>0.11715199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="86">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="64">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="86">
+        <v>4.8899999999999999E-2</v>
+      </c>
+      <c r="G15" s="122" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="64">
+        <f>1457+2096</f>
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="8">
+        <f>E17/(E17+E10)</f>
+        <v>5.6708904399289427E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E19" s="86">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="103">
+        <f>DCF!H55/DCF!H52</f>
+        <v>8.2513302718857054E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="108">
+        <f>(E11*E12)+(E18*E19)*(1-E20)</f>
+        <v>0.11661771800669077</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A139CFE-BE90-400B-91AF-FF66ABB8181A}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12059,10 +12823,10 @@
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="0.77734375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="0.77734375" style="19" customWidth="1"/>
     <col min="8" max="8" width="48.77734375" customWidth="1"/>
     <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="10" max="10" width="1.21875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="1.21875" style="19" customWidth="1"/>
     <col min="11" max="11" width="49.6640625" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
@@ -12070,20 +12834,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="L2" s="12" t="s">
         <v>91</v>
       </c>
@@ -12092,11 +12856,11 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
       <c r="I3" s="11" t="s">
         <v>56</v>
       </c>
@@ -12114,7 +12878,7 @@
       <c r="F4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="13" t="s">
         <v>22</v>
       </c>
@@ -12157,7 +12921,7 @@
       <c r="F6" s="15">
         <v>81462</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="13" t="s">
         <v>25</v>
       </c>
@@ -12213,7 +12977,7 @@
       <c r="F8" s="16">
         <v>60609</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="14" t="s">
         <v>27</v>
       </c>
@@ -12223,10 +12987,10 @@
       <c r="K8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="45">
+      <c r="L8" s="34">
         <v>11758751</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="34">
         <v>21461268</v>
       </c>
     </row>
@@ -12243,7 +13007,7 @@
       <c r="F9" s="16">
         <v>20853</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="13" t="s">
         <v>28</v>
       </c>
@@ -12293,7 +13057,7 @@
       <c r="F11" s="16">
         <v>3075</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="14" t="s">
         <v>30</v>
       </c>
@@ -12323,7 +13087,7 @@
       <c r="F12" s="16">
         <v>3946</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="14" t="s">
         <v>31</v>
       </c>
@@ -12353,7 +13117,7 @@
       <c r="F13" s="16">
         <v>176</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="14" t="s">
         <v>32</v>
       </c>
@@ -12383,7 +13147,7 @@
       <c r="F14" s="16">
         <v>7197</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="14" t="s">
         <v>57</v>
       </c>
@@ -12393,10 +13157,10 @@
       <c r="K14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="34">
         <v>2222487</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="34">
         <v>4042021</v>
       </c>
     </row>
@@ -12413,7 +13177,7 @@
       <c r="F15" s="16">
         <v>13656</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="14" t="s">
         <v>34</v>
       </c>
@@ -12437,7 +13201,7 @@
       <c r="F16" s="16">
         <v>297</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="14" t="s">
         <v>35</v>
       </c>
@@ -12467,7 +13231,7 @@
       <c r="F17" s="16">
         <v>-191</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="14" t="s">
         <v>58</v>
       </c>
@@ -12497,7 +13261,7 @@
       <c r="F18" s="16">
         <v>-43</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="14" t="s">
         <v>59</v>
       </c>
@@ -12524,7 +13288,7 @@
       <c r="F19" s="16">
         <v>13719</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="14" t="s">
         <v>38</v>
       </c>
@@ -12554,7 +13318,7 @@
       <c r="F20" s="16">
         <v>1132</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="14" t="s">
         <v>60</v>
       </c>
@@ -12564,11 +13328,11 @@
       <c r="K20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="45">
-        <v>-1632086</v>
-      </c>
-      <c r="M20" s="45">
-        <v>-388073</v>
+      <c r="L20" s="34">
+        <v>-1632</v>
+      </c>
+      <c r="M20" s="34">
+        <v>-388</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -12584,7 +13348,7 @@
       <c r="F21" s="16">
         <v>12587</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="14" t="s">
         <v>40</v>
       </c>
@@ -12614,7 +13378,7 @@
       <c r="F22" s="16">
         <v>31</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="14" t="s">
         <v>61</v>
       </c>
@@ -12644,7 +13408,7 @@
       <c r="F23" s="15">
         <v>12556</v>
       </c>
-      <c r="G23" s="23"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="14" t="s">
         <v>62</v>
       </c>
@@ -12674,20 +13438,20 @@
       <c r="F24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="23"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="14" t="s">
         <v>63</v>
       </c>
       <c r="I24" s="15">
         <v>-870</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="L24" s="66">
+      <c r="L24" s="49">
         <v>-2209</v>
       </c>
-      <c r="M24" s="66">
+      <c r="M24" s="49">
         <v>-1005</v>
       </c>
     </row>
@@ -12707,17 +13471,17 @@
       <c r="F25" s="17">
         <v>4.0199999999999996</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="K25" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="66">
+      <c r="L25" s="49">
         <v>32</v>
       </c>
-      <c r="M25" s="66">
+      <c r="M25" s="49">
         <v>58</v>
       </c>
     </row>
@@ -12746,10 +13510,10 @@
       <c r="K26" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="34">
         <v>-2240578</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="34">
         <v>-1062582</v>
       </c>
     </row>
@@ -12766,7 +13530,7 @@
       <c r="F27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="14" t="s">
         <v>45</v>
       </c>
@@ -12799,7 +13563,7 @@
       <c r="F28" s="16">
         <v>3130</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="13" t="s">
         <v>65</v>
       </c>
@@ -12852,7 +13616,7 @@
       <c r="F30" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="23"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="14" t="s">
         <v>45</v>
       </c>
@@ -12882,7 +13646,7 @@
       <c r="F31" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="23"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="14" t="s">
         <v>66</v>
       </c>
@@ -12958,7 +13722,7 @@
       <c r="F34" s="16">
         <v>2476</v>
       </c>
-      <c r="G34" s="22"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="14" t="s">
         <v>67</v>
       </c>
@@ -13028,7 +13792,7 @@
       <c r="F37" s="16">
         <v>49599</v>
       </c>
-      <c r="G37" s="23"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="14" t="s">
         <v>68</v>
       </c>
@@ -13104,7 +13868,7 @@
       <c r="F40" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="23"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="14" t="s">
         <v>47</v>
       </c>
@@ -13174,7 +13938,7 @@
       <c r="F43" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G43" s="23"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="13" t="s">
         <v>25</v>
       </c>
@@ -13224,7 +13988,7 @@
       <c r="F45" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="23"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="14" t="s">
         <v>50</v>
       </c>
@@ -13245,7 +14009,7 @@
       <c r="F46" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G46" s="23"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="14" t="s">
         <v>26</v>
       </c>
@@ -13266,7 +14030,7 @@
       <c r="F47" s="16">
         <v>6091</v>
       </c>
-      <c r="G47" s="23"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="14" t="s">
         <v>53</v>
       </c>
@@ -13309,11 +14073,11 @@
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="G50" s="23"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="13" t="s">
         <v>25</v>
       </c>
@@ -13327,7 +14091,7 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G52" s="23"/>
+      <c r="G52" s="22"/>
       <c r="H52" s="14" t="s">
         <v>54</v>
       </c>
@@ -13346,7 +14110,7 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G55" s="23"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="13" t="s">
         <v>25</v>
       </c>
@@ -13360,7 +14124,7 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G57" s="22"/>
+      <c r="G57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13372,7 +14136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D089526C-565C-4AF9-AC13-7DC8A669AC01}">
   <dimension ref="B2:L59"/>
   <sheetViews>
@@ -13385,12 +14149,12 @@
     <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="2" max="2" width="44.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="1.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="1.21875" style="19" customWidth="1"/>
     <col min="5" max="5" width="44.77734375" customWidth="1"/>
     <col min="6" max="6" width="15.21875" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="1.21875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="1.21875" style="19" customWidth="1"/>
     <col min="10" max="10" width="58.5546875" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="12.21875" customWidth="1"/>
@@ -13400,7 +14164,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C2" s="69">
+      <c r="C2" s="52">
         <v>2022</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -14882,7 +15646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51328485-2741-42D6-97C2-2B084E4F2944}">
   <dimension ref="B1:K48"/>
   <sheetViews>
@@ -14903,12 +15667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="120" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="2:11" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="11" t="s">
@@ -15057,10 +15821,10 @@
       <c r="H9" s="16">
         <v>6570520</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="52">
         <v>20</v>
       </c>
-      <c r="K9" s="69">
+      <c r="K9" s="52">
         <v>21</v>
       </c>
     </row>
@@ -15083,10 +15847,10 @@
       <c r="H10" s="16">
         <v>10027522</v>
       </c>
-      <c r="J10" s="70">
+      <c r="J10" s="53">
         <v>184</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="53">
         <v>518</v>
       </c>
     </row>
@@ -15203,10 +15967,10 @@
       <c r="F16" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="34">
         <v>29739614</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="34">
         <v>28655372</v>
       </c>
     </row>
@@ -15254,7 +16018,7 @@
       <c r="D19" s="16">
         <v>7142</v>
       </c>
-      <c r="E19" s="71"/>
+      <c r="E19" s="54"/>
       <c r="F19" s="14" t="s">
         <v>191</v>
       </c>
